--- a/data/processed/CascadiaMargin_index_values.xlsx
+++ b/data/processed/CascadiaMargin_index_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Desktop/cascadia-margin-lipids/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Desktop/cascadia-margin-lipids/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C2BD8-5D01-844F-9332-566CC3E5C976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F152D-2DB8-F943-ACBF-D311C12279E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="7020" windowWidth="13980" windowHeight="13420" xr2:uid="{8DD774BC-1906-1E41-9886-58525280DC81}"/>
+    <workbookView xWindow="4700" yWindow="1180" windowWidth="32660" windowHeight="21380" xr2:uid="{8DD774BC-1906-1E41-9886-58525280DC81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Location</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>S113</t>
+  </si>
+  <si>
+    <t>delta_sst</t>
+  </si>
+  <si>
+    <t>50th_percentile</t>
   </si>
 </sst>
 </file>
@@ -255,11 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A67AC7-AD91-FA4A-BD47-9F4A66AF22B1}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -593,17 +605,23 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -613,17 +631,24 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0.66898897089939002</v>
+      <c r="D2" s="5">
+        <v>0.67720575362318292</v>
       </c>
       <c r="E2">
         <v>0.48252283468287599</v>
       </c>
-      <c r="F2">
-        <v>0.48699293309134217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="7">
+        <v>0.47675468958626593</v>
+      </c>
+      <c r="G2">
+        <v>24.517788605689201</v>
+      </c>
+      <c r="H2">
+        <f>G2-15.56</f>
+        <v>8.9577886056892009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -633,17 +658,24 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0.57641256206554359</v>
+      <c r="D3" s="5">
+        <v>0.5868567624647687</v>
       </c>
       <c r="E3">
         <v>0.45166681430618888</v>
       </c>
-      <c r="F3">
-        <v>0.4813387751426334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="7">
+        <v>0.48594658278166525</v>
+      </c>
+      <c r="G3">
+        <v>18.918613182019001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H38" si="0">G3-15.56</f>
+        <v>3.3586131820190008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -653,17 +685,24 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0.62766803662230974</v>
+      <c r="D4" s="5">
+        <v>0.63185726321298019</v>
       </c>
       <c r="E4">
-        <v>0.43062397852445133</v>
-      </c>
-      <c r="F4">
-        <v>0.578407859979856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.43081878714872546</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.56700657936281273</v>
+      </c>
+      <c r="G4">
+        <v>21.974243864001402</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>6.414243864001401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -673,17 +712,24 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0.62654188164718772</v>
+      <c r="D5" s="5">
+        <v>0.63219372691698583</v>
       </c>
       <c r="E5">
-        <v>0.42365114287481942</v>
-      </c>
-      <c r="F5">
-        <v>0.74758272863711506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.42281505381099865</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.7376073587455062</v>
+      </c>
+      <c r="G5">
+        <v>21.9115919431406</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>6.3515919431405994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -693,17 +739,24 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>0.6661689887295571</v>
+      <c r="D6" s="5">
+        <v>0.65692697188887328</v>
       </c>
       <c r="E6">
-        <v>0.45516333995045749</v>
-      </c>
-      <c r="F6">
-        <v>0.4911430704272931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.45519670545808366</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.46305351519692262</v>
+      </c>
+      <c r="G6">
+        <v>24.310981209569299</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.7509812095692983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -713,17 +766,24 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0.76928947089430288</v>
+      <c r="D7" s="5">
+        <v>0.76449179000999357</v>
       </c>
       <c r="E7">
-        <v>0.43956232151397273</v>
-      </c>
-      <c r="F7">
-        <v>0.70340412034440736</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.43944510919145563</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.67147613962434949</v>
+      </c>
+      <c r="G7">
+        <v>30.604425181995499</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>15.044425181995498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -733,17 +793,24 @@
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>0.79154494174577172</v>
+      <c r="D8" s="5">
+        <v>0.77858697708256275</v>
       </c>
       <c r="E8">
-        <v>0.4408509830284395</v>
-      </c>
-      <c r="F8">
-        <v>0.73441258555276112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.43671128266235232</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.70139947618082699</v>
+      </c>
+      <c r="G8">
+        <v>32.176226092316298</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>16.616226092316296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -753,17 +820,24 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>0.79328733652776107</v>
+      <c r="D9" s="5">
+        <v>0.77797321843015677</v>
       </c>
       <c r="E9">
-        <v>0.46921780736444568</v>
-      </c>
-      <c r="F9">
-        <v>0.79403741649868298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.4684781483875734</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.76047110727067635</v>
+      </c>
+      <c r="G9">
+        <v>32.131591673939297</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>16.571591673939295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -773,17 +847,24 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0.61002859807289811</v>
+      <c r="D10" s="5">
+        <v>0.61012813547165423</v>
       </c>
       <c r="E10">
         <v>0.35556454140414756</v>
       </c>
-      <c r="F10">
-        <v>0.2744449962421267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="7">
+        <v>0.28689556348515072</v>
+      </c>
+      <c r="G10">
+        <v>21.1457808641524</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>5.5857808641523992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -793,17 +874,24 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0.65615332229434464</v>
+      <c r="D11" s="5">
+        <v>0.62464708172255301</v>
       </c>
       <c r="E11">
-        <v>0.33186886653253617</v>
-      </c>
-      <c r="F11">
-        <v>0.33527828007065352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.7554682824761093E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.3232576483163408</v>
+      </c>
+      <c r="G11">
+        <v>23.797948646557298</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>8.2379486465572977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -813,17 +901,24 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0.59512295340051236</v>
+      <c r="D12" s="5">
+        <v>0.59826042423482273</v>
       </c>
       <c r="E12">
-        <v>0.33896373963456627</v>
-      </c>
-      <c r="F12">
-        <v>0.29487897840627419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.4366285293107131E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.29284137025907736</v>
+      </c>
+      <c r="G12">
+        <v>19.975727546707599</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4.4157275467075987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -833,17 +928,24 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0.55738760084192962</v>
+      <c r="D13" s="5">
+        <v>0.55679482574771211</v>
       </c>
       <c r="E13">
         <v>0.32249837750848853</v>
       </c>
-      <c r="F13">
-        <v>0.33025856434469175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="7">
+        <v>0.32996151375652949</v>
+      </c>
+      <c r="G13">
+        <v>17.918391450992001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2.3583914509920003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -853,17 +955,24 @@
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>0.66316492821117423</v>
+      <c r="D14" s="5">
+        <v>0.65104674118680617</v>
       </c>
       <c r="E14">
-        <v>0.27827163388924503</v>
-      </c>
-      <c r="F14">
-        <v>0.72596649680068437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.5601082960786414E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.72151193175048589</v>
+      </c>
+      <c r="G14">
+        <v>24.233541536736102</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>8.6735415367361011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -873,17 +982,24 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>0.59731454241936377</v>
+      <c r="D15" s="5">
+        <v>0.58745651548337741</v>
       </c>
       <c r="E15">
-        <v>0.32577487919175663</v>
-      </c>
-      <c r="F15">
-        <v>0.35792194267189814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.985109953863565E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.36046417895832011</v>
+      </c>
+      <c r="G15">
+        <v>20.315739032769599</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.7557390327695988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -893,17 +1009,24 @@
       <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>0.56252946394761139</v>
+      <c r="D16" s="5">
+        <v>0.61471232584389945</v>
       </c>
       <c r="E16">
-        <v>0.29975936144079895</v>
-      </c>
-      <c r="F16">
-        <v>0.30671656652092832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.9301981181731859E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.29779406554455229</v>
+      </c>
+      <c r="G16">
+        <v>18.211894451930998</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2.6518944519309979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -913,17 +1036,24 @@
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17">
-        <v>0.56713648619121471</v>
+      <c r="D17" s="5">
+        <v>0.50150904559058185</v>
       </c>
       <c r="E17">
-        <v>0.39808557288084706</v>
-      </c>
-      <c r="F17">
-        <v>0.29955403723861362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.6268064653699753E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.29925288745092726</v>
+      </c>
+      <c r="G17">
+        <v>18.3198261643969</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2.7598261643969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -933,17 +1063,24 @@
       <c r="C18">
         <v>30</v>
       </c>
-      <c r="D18">
-        <v>0.58323604059658407</v>
+      <c r="D18" s="5">
+        <v>0.5773854410165693</v>
       </c>
       <c r="E18">
-        <v>0.34866878845536292</v>
-      </c>
-      <c r="F18">
-        <v>0.30414753122423854</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.0561564958728732E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.3096004709373002</v>
+      </c>
+      <c r="G18">
+        <v>19.379193723721201</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3.8191937237212006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -953,17 +1090,24 @@
       <c r="C19">
         <v>30</v>
       </c>
-      <c r="D19">
-        <v>0.57216399842282062</v>
+      <c r="D19" s="5">
+        <v>0.58382490891929728</v>
       </c>
       <c r="E19">
-        <v>0.37262738267206558</v>
-      </c>
-      <c r="F19">
-        <v>0.3171894342715243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.3991924743458115E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.3119960168121429</v>
+      </c>
+      <c r="G19">
+        <v>18.7931499324378</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3.233149932437799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -973,17 +1117,24 @@
       <c r="C20">
         <v>30</v>
       </c>
-      <c r="D20">
-        <v>0.54201797599344315</v>
+      <c r="D20" s="5">
+        <v>0.47155901673549244</v>
       </c>
       <c r="E20">
-        <v>0.36656593035824325</v>
-      </c>
-      <c r="F20">
-        <v>0.28509710599782406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.5108561103626778E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.27547075959207301</v>
+      </c>
+      <c r="G20">
+        <v>16.8056329437802</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.2456329437801994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -993,17 +1144,24 @@
       <c r="C21">
         <v>30</v>
       </c>
-      <c r="D21">
-        <v>0.58328641573439743</v>
+      <c r="D21" s="5">
+        <v>0.57776550949610006</v>
       </c>
       <c r="E21">
-        <v>0.36136615387023657</v>
-      </c>
-      <c r="F21">
-        <v>0.28063117144600108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.3765614949241354E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.28041980692485835</v>
+      </c>
+      <c r="G21">
+        <v>19.327188492201198</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3.767188492201198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1013,17 +1171,24 @@
       <c r="C22">
         <v>60</v>
       </c>
-      <c r="D22">
-        <v>0.58422436939346267</v>
+      <c r="D22" s="5">
+        <v>0.54173696060728427</v>
       </c>
       <c r="E22">
-        <v>0.42105837169244081</v>
-      </c>
-      <c r="F22">
-        <v>0.22778935808551889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.963599031999182E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.21844802213791911</v>
+      </c>
+      <c r="G22">
+        <v>19.2749344444432</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3.7149344444432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1033,17 +1198,24 @@
       <c r="C23">
         <v>60</v>
       </c>
-      <c r="D23">
-        <v>0.62703340623808024</v>
+      <c r="D23" s="5">
+        <v>0.57122520382548236</v>
       </c>
       <c r="E23">
         <v>0.44013059778514702</v>
       </c>
-      <c r="F23">
-        <v>0.29650384239423044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="7">
+        <v>0.2899238250932229</v>
+      </c>
+      <c r="G23">
+        <v>21.955062362703899</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>6.3950623627038983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1053,17 +1225,24 @@
       <c r="C24">
         <v>60</v>
       </c>
-      <c r="D24">
-        <v>0.62976674467504301</v>
+      <c r="D24" s="5">
+        <v>0.61807051359432152</v>
       </c>
       <c r="E24">
-        <v>0.41873469352054826</v>
-      </c>
-      <c r="F24">
-        <v>0.25983883134024127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2.2090646911864832E-2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.26298849811163255</v>
+      </c>
+      <c r="G24">
+        <v>21.934208374188401</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>6.3742083741884006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1073,17 +1252,24 @@
       <c r="C25">
         <v>60</v>
       </c>
-      <c r="D25">
-        <v>0.59511332596690147</v>
+      <c r="D25" s="5">
+        <v>0.6066447599408209</v>
       </c>
       <c r="E25">
-        <v>0.38379666181687383</v>
-      </c>
-      <c r="F25">
-        <v>0.25641198966387713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.8422642092251615E-2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.25233588885542452</v>
+      </c>
+      <c r="G25">
+        <v>19.9948360298919</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>4.4348360298918994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1093,17 +1279,24 @@
       <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26">
-        <v>0.47057167577841774</v>
+      <c r="D26" s="5">
+        <v>0.45720341465494868</v>
       </c>
       <c r="E26">
-        <v>0.41345251605058153</v>
-      </c>
-      <c r="F26">
-        <v>0.19665181321272995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.7516495966536527E-2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.19868234179774921</v>
+      </c>
+      <c r="G26">
+        <v>12.371556637357299</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-3.1884433626427011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1113,17 +1306,24 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>0.43528275607241412</v>
+      <c r="D27" s="5">
+        <v>0.41756755012391528</v>
       </c>
       <c r="E27">
-        <v>0.46675097869306076</v>
-      </c>
-      <c r="F27">
-        <v>0.21574158329760967</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.3057298328687468E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.22366057251142091</v>
+      </c>
+      <c r="G27">
+        <v>10.5080314660926</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-5.0519685339074005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1133,17 +1333,24 @@
       <c r="C28">
         <v>30</v>
       </c>
-      <c r="D28">
-        <v>0.49196061152473991</v>
+      <c r="D28" s="5">
+        <v>0.48926204697178849</v>
       </c>
       <c r="E28">
-        <v>0.45611314717445228</v>
-      </c>
-      <c r="F28">
-        <v>0.20440116040090844</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.3613081103649109E-2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.20315729505347366</v>
+      </c>
+      <c r="G28">
+        <v>13.791257926320201</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>-1.7687420736797996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1153,17 +1360,24 @@
       <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>0.45669554737920115</v>
+      <c r="D29" s="5">
+        <v>0.45458045581977785</v>
       </c>
       <c r="E29">
-        <v>0.45479366250735975</v>
-      </c>
-      <c r="F29">
-        <v>0.21266584154074664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.9441976144376328E-2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.21389886908642072</v>
+      </c>
+      <c r="G29">
+        <v>11.642581291313499</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>-3.9174187086865011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1173,17 +1387,24 @@
       <c r="C30">
         <v>30</v>
       </c>
-      <c r="D30">
-        <v>0.48129599438443599</v>
+      <c r="D30" s="5">
+        <v>0.48317909607307613</v>
       </c>
       <c r="E30">
-        <v>0.43591296559682507</v>
-      </c>
-      <c r="F30">
-        <v>0.20419899489980287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.8248092889005999E-2</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.20425247150247222</v>
+      </c>
+      <c r="G30">
+        <v>13.352245686270701</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>-2.2077543137292999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1193,17 +1414,24 @@
       <c r="C31">
         <v>60</v>
       </c>
-      <c r="D31">
-        <v>0.46756108655554551</v>
+      <c r="D31" s="5">
+        <v>0.44453464866875081</v>
       </c>
       <c r="E31">
-        <v>0.43436217318556569</v>
-      </c>
-      <c r="F31">
-        <v>0.19337398885350482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.3954684179315416E-2</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.19604336213331397</v>
+      </c>
+      <c r="G31">
+        <v>12.3689527710367</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-3.191047228963301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1213,17 +1441,24 @@
       <c r="C32">
         <v>60</v>
       </c>
-      <c r="D32">
-        <v>0.4273876849995531</v>
+      <c r="D32" s="5">
+        <v>0.43940722611414484</v>
       </c>
       <c r="E32">
-        <v>0.47520101580157598</v>
-      </c>
-      <c r="F32">
-        <v>0.20192158486361669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.8826180099903659E-2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.20173032790264581</v>
+      </c>
+      <c r="G32">
+        <v>9.8781657039055908</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-5.6818342960944097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1233,17 +1468,24 @@
       <c r="C33">
         <v>60</v>
       </c>
-      <c r="D33">
-        <v>0.4395735235911899</v>
+      <c r="D33" s="5">
+        <v>0.46028391362290083</v>
       </c>
       <c r="E33">
-        <v>0.44961156059860985</v>
-      </c>
-      <c r="F33">
-        <v>0.20137760096997548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.3229116749378334E-2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.19712664133441202</v>
+      </c>
+      <c r="G33">
+        <v>10.749016627219</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-4.810983372781001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1253,17 +1495,24 @@
       <c r="C34">
         <v>60</v>
       </c>
-      <c r="D34">
-        <v>0.44067515392780549</v>
+      <c r="D34" s="5">
+        <v>0.44655273777774895</v>
       </c>
       <c r="E34">
-        <v>0.43578405472264492</v>
-      </c>
-      <c r="F34">
-        <v>0.21562367619404835</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.8030581015928691E-2</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.21598927108681895</v>
+      </c>
+      <c r="G34">
+        <v>10.754173761845299</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>-4.805826238154701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1273,17 +1522,24 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35">
-        <v>0.47714729098208275</v>
+      <c r="D35" s="5">
+        <v>0.4681156752644125</v>
       </c>
       <c r="E35">
-        <v>0.50558871812756068</v>
-      </c>
-      <c r="F35">
-        <v>0.20191503028999105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.2744656598234698E-2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.20634415418287913</v>
+      </c>
+      <c r="G35">
+        <v>12.730642208976599</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>-2.8293577910234013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1293,17 +1549,24 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36">
-        <v>0.4463273611581734</v>
+      <c r="D36" s="5">
+        <v>0.44638196588260742</v>
       </c>
       <c r="E36">
-        <v>0.47106003350354969</v>
-      </c>
-      <c r="F36">
-        <v>0.22683857026136564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.9942628624475413E-2</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.22749635560191175</v>
+      </c>
+      <c r="G36">
+        <v>10.9753925655431</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>-4.5846074344569008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1313,17 +1576,24 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>0.51517772250329463</v>
+      <c r="D37" s="5">
+        <v>0.51252808105275394</v>
       </c>
       <c r="E37">
-        <v>0.45640778578093943</v>
-      </c>
-      <c r="F37">
-        <v>0.22601127825340453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.9732792777112579E-2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.22582640766859632</v>
+      </c>
+      <c r="G37">
+        <v>15.1548343950268</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>-0.40516560497320064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1333,14 +1603,21 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>0.51537300698459299</v>
+      <c r="D38" s="5">
+        <v>0.50995610213373854</v>
       </c>
       <c r="E38">
-        <v>0.44613840917517117</v>
-      </c>
-      <c r="F38">
-        <v>0.22341331427260133</v>
+        <v>8.183109748619094E-2</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.22425042449442903</v>
+      </c>
+      <c r="G38">
+        <v>15.3387246784964</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>-0.22127532150360096</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/CascadiaMargin_index_values.xlsx
+++ b/data/processed/CascadiaMargin_index_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Desktop/cascadia-margin-lipids/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Documents/cascadia-margin-lipids/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F152D-2DB8-F943-ACBF-D311C12279E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF0AEC8-7358-4A42-A386-461C00E4C347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="1180" windowWidth="32660" windowHeight="21380" xr2:uid="{8DD774BC-1906-1E41-9886-58525280DC81}"/>
+    <workbookView xWindow="1360" yWindow="500" windowWidth="32660" windowHeight="21380" xr2:uid="{8DD774BC-1906-1E41-9886-58525280DC81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Location</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>50th_percentile</t>
+  </si>
+  <si>
+    <t>bayspar_preds</t>
   </si>
 </sst>
 </file>
@@ -587,15 +590,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A67AC7-AD91-FA4A-BD47-9F4A66AF22B1}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -620,8 +623,11 @@
       <c r="H1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -641,14 +647,17 @@
         <v>0.47675468958626593</v>
       </c>
       <c r="G2">
-        <v>24.517788605689201</v>
+        <v>25.115100000000002</v>
       </c>
       <c r="H2">
-        <f>G2-15.56</f>
-        <v>8.9577886056892009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <f>ABS(G2-13)</f>
+        <v>12.115100000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.341785850584854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -668,14 +677,17 @@
         <v>0.48594658278166525</v>
       </c>
       <c r="G3">
-        <v>18.918613182019001</v>
+        <v>19.601099999999999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H38" si="0">G3-15.56</f>
-        <v>3.3586131820190008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H3:H38" si="0">ABS(G3-13)</f>
+        <v>6.6010999999999989</v>
+      </c>
+      <c r="I3">
+        <v>0.35171055505245902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -695,14 +707,17 @@
         <v>0.56700657936281273</v>
       </c>
       <c r="G4">
-        <v>21.974243864001402</v>
+        <v>22.1357</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>6.414243864001401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.1356999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.352746922109899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -722,14 +737,17 @@
         <v>0.7376073587455062</v>
       </c>
       <c r="G5">
-        <v>21.9115919431406</v>
+        <v>22.248699999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>6.3515919431405994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.2486999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.35586701642426199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -749,14 +767,17 @@
         <v>0.46305351519692262</v>
       </c>
       <c r="G6">
-        <v>24.310981209569299</v>
+        <v>23.861999999999998</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>8.7509812095692983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.861999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.36305231868868798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -776,14 +797,17 @@
         <v>0.67147613962434949</v>
       </c>
       <c r="G7">
-        <v>30.604425181995499</v>
+        <v>29.983499999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>15.044425181995498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16.983499999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.3654942111899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -803,14 +827,17 @@
         <v>0.70139947618082699</v>
       </c>
       <c r="G8">
-        <v>32.176226092316298</v>
+        <v>31.317900000000002</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>16.616226092316296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18.317900000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.366881607305097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -830,14 +857,17 @@
         <v>0.76047110727067635</v>
       </c>
       <c r="G9">
-        <v>32.131591673939297</v>
+        <v>31.2576</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>16.571591673939295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18.2576</v>
+      </c>
+      <c r="I9">
+        <v>0.368724726733692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -857,14 +887,17 @@
         <v>0.28689556348515072</v>
       </c>
       <c r="G10">
-        <v>21.1457808641524</v>
+        <v>21.1112</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>5.5857808641523992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.1112000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.37138202297287398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -884,14 +917,17 @@
         <v>0.3232576483163408</v>
       </c>
       <c r="G11">
-        <v>23.797948646557298</v>
+        <v>21.523299999999999</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>8.2379486465572977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.523299999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.373538954524958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -911,14 +947,17 @@
         <v>0.29284137025907736</v>
       </c>
       <c r="G12">
-        <v>19.975727546707599</v>
+        <v>20.410299999999999</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>4.4157275467075987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.4102999999999994</v>
+      </c>
+      <c r="I12">
+        <v>0.37395913410197801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -938,14 +977,17 @@
         <v>0.32996151375652949</v>
       </c>
       <c r="G13">
-        <v>17.918391450992001</v>
+        <v>17.8962</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>2.3583914509920003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.8962000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.37690404844387998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -965,14 +1007,17 @@
         <v>0.72151193175048589</v>
       </c>
       <c r="G14">
-        <v>24.233541536736102</v>
+        <v>23.587</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>8.6735415367361011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.587</v>
+      </c>
+      <c r="I14">
+        <v>0.37890964971345098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -992,14 +1037,17 @@
         <v>0.36046417895832011</v>
       </c>
       <c r="G15">
-        <v>20.315739032769599</v>
+        <v>19.925699999999999</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>4.7557390327695988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.9256999999999991</v>
+      </c>
+      <c r="I15">
+        <v>0.38026754262583901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1019,14 +1067,17 @@
         <v>0.29779406554455229</v>
       </c>
       <c r="G16">
-        <v>18.211894451930998</v>
+        <v>20.9602</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>2.6518944519309979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.9602000000000004</v>
+      </c>
+      <c r="I16">
+        <v>0.382164267008339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1046,14 +1097,17 @@
         <v>0.29925288745092726</v>
       </c>
       <c r="G17">
-        <v>18.3198261643969</v>
+        <v>14.586</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>2.7598261643969</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5860000000000003</v>
+      </c>
+      <c r="I17">
+        <v>0.38320668265950197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1073,14 +1127,17 @@
         <v>0.3096004709373002</v>
       </c>
       <c r="G18">
-        <v>19.379193723721201</v>
+        <v>18.990400000000001</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>3.8191937237212006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.9904000000000011</v>
+      </c>
+      <c r="I18">
+        <v>0.384110051457485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1100,14 +1157,17 @@
         <v>0.3119960168121429</v>
       </c>
       <c r="G19">
-        <v>18.7931499324378</v>
+        <v>19.0639</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>3.233149932437799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.0639000000000003</v>
+      </c>
+      <c r="I19">
+        <v>0.38443469632353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1127,14 +1187,17 @@
         <v>0.27547075959207301</v>
       </c>
       <c r="G20">
-        <v>16.8056329437802</v>
+        <v>12.722099999999999</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.2456329437801994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.2779000000000007</v>
+      </c>
+      <c r="I20">
+        <v>0.38547064655548802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1154,14 +1217,17 @@
         <v>0.28041980692485835</v>
       </c>
       <c r="G21">
-        <v>19.327188492201198</v>
+        <v>19.282699999999998</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>3.767188492201198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.2826999999999984</v>
+      </c>
+      <c r="I21">
+        <v>0.38685380218334697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1181,14 +1247,17 @@
         <v>0.21844802213791911</v>
       </c>
       <c r="G22">
-        <v>19.2749344444432</v>
+        <v>16.866499999999998</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>3.7149344444432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.8664999999999985</v>
+      </c>
+      <c r="I22">
+        <v>0.38807109514601301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1208,14 +1277,17 @@
         <v>0.2899238250932229</v>
       </c>
       <c r="G23">
-        <v>21.955062362703899</v>
+        <v>18.608799999999999</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>6.3950623627038983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.6087999999999987</v>
+      </c>
+      <c r="I23">
+        <v>0.38847552814610697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1235,14 +1307,17 @@
         <v>0.26298849811163255</v>
       </c>
       <c r="G24">
-        <v>21.934208374188401</v>
+        <v>21.697299999999998</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>6.3742083741884006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.6972999999999985</v>
+      </c>
+      <c r="I24">
+        <v>0.38871940203229799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1262,14 +1337,17 @@
         <v>0.25233588885542452</v>
       </c>
       <c r="G25">
-        <v>19.9948360298919</v>
+        <v>21.016500000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>4.4348360298918994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8.0165000000000006</v>
+      </c>
+      <c r="I25">
+        <v>0.389908213463111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1289,14 +1367,17 @@
         <v>0.19868234179774921</v>
       </c>
       <c r="G26">
-        <v>12.371556637357299</v>
+        <v>11.9781</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>-3.1884433626427011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.0219000000000005</v>
+      </c>
+      <c r="I26">
+        <v>0.39059726407933598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1316,14 +1397,17 @@
         <v>0.22366057251142091</v>
       </c>
       <c r="G27">
-        <v>10.5080314660926</v>
+        <v>9.3550000000000004</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>-5.0519685339074005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3.6449999999999996</v>
+      </c>
+      <c r="I27">
+        <v>0.39078542144670902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1343,14 +1427,17 @@
         <v>0.20315729505347366</v>
       </c>
       <c r="G28">
-        <v>13.791257926320201</v>
+        <v>13.7879</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>-1.7687420736797996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.78790000000000049</v>
+      </c>
+      <c r="I28">
+        <v>0.39250978204148501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1370,14 +1457,17 @@
         <v>0.21389886908642072</v>
       </c>
       <c r="G29">
-        <v>11.642581291313499</v>
+        <v>11.3238</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>-3.9174187086865011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6761999999999997</v>
+      </c>
+      <c r="I29">
+        <v>0.39347518858598202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1397,14 +1487,17 @@
         <v>0.20425247150247222</v>
       </c>
       <c r="G30">
-        <v>13.352245686270701</v>
+        <v>13.2119</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>-2.2077543137292999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.21189999999999998</v>
+      </c>
+      <c r="I30">
+        <v>0.39369896840349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1424,14 +1517,17 @@
         <v>0.19604336213331397</v>
       </c>
       <c r="G31">
-        <v>12.3689527710367</v>
+        <v>10.7697</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>-3.191047228963301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.2302999999999997</v>
+      </c>
+      <c r="I31">
+        <v>0.39432179100206999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1451,14 +1547,17 @@
         <v>0.20173032790264581</v>
       </c>
       <c r="G32">
-        <v>9.8781657039055908</v>
+        <v>10.6069</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>-5.6818342960944097</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.3931000000000004</v>
+      </c>
+      <c r="I32">
+        <v>0.39483222866906198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1478,14 +1577,17 @@
         <v>0.19712664133441202</v>
       </c>
       <c r="G33">
-        <v>10.749016627219</v>
+        <v>11.7804</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>-4.810983372781001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.2195999999999998</v>
+      </c>
+      <c r="I33">
+        <v>0.39535616624338799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1505,14 +1607,17 @@
         <v>0.21598927108681895</v>
       </c>
       <c r="G34">
-        <v>10.754173761845299</v>
+        <v>11.466100000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>-4.805826238154701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5338999999999992</v>
+      </c>
+      <c r="I34">
+        <v>0.39555834165966902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1532,14 +1637,17 @@
         <v>0.20634415418287913</v>
       </c>
       <c r="G35">
-        <v>12.730642208976599</v>
+        <v>12.264799999999999</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>-2.8293577910234013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.73520000000000074</v>
+      </c>
+      <c r="I35">
+        <v>0.39593559077170198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1559,14 +1667,17 @@
         <v>0.22749635560191175</v>
       </c>
       <c r="G36">
-        <v>10.9753925655431</v>
+        <v>11.3384</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>-4.5846074344569008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6616</v>
+      </c>
+      <c r="I36">
+        <v>0.396304086907319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1586,14 +1697,17 @@
         <v>0.22582640766859632</v>
       </c>
       <c r="G37">
-        <v>15.1548343950268</v>
+        <v>14.9139</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>-0.40516560497320064</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.9138999999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.39696362598771701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1613,11 +1727,4829 @@
         <v>0.22425042449442903</v>
       </c>
       <c r="G38">
-        <v>15.3387246784964</v>
+        <v>14.8954</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>-0.22127532150360096</v>
+        <v>1.8954000000000004</v>
+      </c>
+      <c r="I38">
+        <v>0.39747940540314203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>0.39801073770691497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0.39837164612417603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0.39927897742934298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0.399579399834952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>0.39991178876920402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0.40038387573657802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0.40072381408597502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>0.40185129660300001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0.40252601820754502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0.40296332857022898</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0.40311294214139198</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0.40344020317003199</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0.403689417399761</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0.40411639632016699</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0.40459115684489</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0.40465133018229699</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0.40503986482311</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0.40540585026738002</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>0.40609062904837701</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0.40628108886070602</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0.40642810525129403</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.40653955174219603</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.406810949231035</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>0.40726176182913798</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>0.40766875390573998</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0.40836030854351302</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0.40924791903845198</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>0.40981535520470302</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>0.41002227048655498</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0.410068258934914</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0.410275449702382</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.41059455556740099</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.41069936420244302</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.41104714713774898</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.41143798401869802</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.41206888181737</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.41228732956603398</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.41282098546547702</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.41295853792661402</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.41326708970367299</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.41349097624248199</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.41365280569784202</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.414156169822753</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>0.414681950379783</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>0.41484263739887101</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>0.41495748449650299</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>0.41548843779640598</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>0.41559299584945197</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>0.41570550258792599</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>0.416321573421915</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>0.41650796112232202</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>0.41657644195070598</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>0.41729238799256202</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>0.417567205100769</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>0.41767221782842001</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>0.417749321471857</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>0.41795093924882498</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>0.41877097910366301</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>0.41912091536422003</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>0.41942566026286399</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>0.419934071146222</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>0.420083105565555</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>0.42063173076640198</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>0.42101469961062299</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>0.42127302694590302</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <v>0.42154914870238402</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <v>0.42171853636252199</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <v>0.42179611281245799</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <v>0.421889136446914</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <v>0.42202016856255198</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <v>0.42228486368401102</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <v>0.42250880032924798</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <v>0.42256577448714799</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <v>0.422822603727874</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>0.42301206841087202</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <v>0.42330123714527701</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <v>0.42356796422743898</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <v>0.42386383323092702</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <v>0.42404373803571699</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>0.42411165717920901</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <v>0.42436770029788101</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <v>0.424550938150414</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>0.42486504165856898</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <v>0.425150037701016</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <v>0.42554218639209501</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <v>0.42570509660373002</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <v>0.42586909097953901</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <v>0.42607466079751999</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <v>0.42612504970494303</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <v>0.42681356779733098</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <v>0.42687889064655998</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <v>0.42693882001033401</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <v>0.42715494999250497</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <v>0.42742757120698599</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <v>0.42782422165248202</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <v>0.42808684064229602</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <v>0.428192397485538</v>
+      </c>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <v>0.42853873583204999</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <v>0.42887986867061201</v>
+      </c>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <v>0.42910193383379402</v>
+      </c>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <v>0.429419670761921</v>
+      </c>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <v>0.42954930178905498</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <v>0.42960707759922201</v>
+      </c>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <v>0.42976378347675998</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <v>0.43004847505079602</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <v>0.43023103921165501</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <v>0.430361451709946</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <v>0.43053403775437799</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>0.43068843439119298</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <v>0.43073749444399101</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <v>0.43079459458028901</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <v>0.43083941379525997</v>
+      </c>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <v>0.43092123975871499</v>
+      </c>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <v>0.43109386513374798</v>
+      </c>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I153">
+        <v>0.43135855078443802</v>
+      </c>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I154">
+        <v>0.43163848899577301</v>
+      </c>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <v>0.43171305674663801</v>
+      </c>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I156">
+        <v>0.43201488815615202</v>
+      </c>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <v>0.43205792767418799</v>
+      </c>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <v>0.43217455343503303</v>
+      </c>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <v>0.43252858401001298</v>
+      </c>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <v>0.43266072260792299</v>
+      </c>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <v>0.43286146912369799</v>
+      </c>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <v>0.43292979435302598</v>
+      </c>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <v>0.43300237213989201</v>
+      </c>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I164">
+        <v>0.43322785442010198</v>
+      </c>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I165">
+        <v>0.433345382258568</v>
+      </c>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I166">
+        <v>0.43338064377193197</v>
+      </c>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I167">
+        <v>0.43355830519664501</v>
+      </c>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I168">
+        <v>0.43398102777671399</v>
+      </c>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I169">
+        <v>0.43404479038575899</v>
+      </c>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I170">
+        <v>0.43410526524256199</v>
+      </c>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I171">
+        <v>0.43415673156037299</v>
+      </c>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I172">
+        <v>0.43443328956024901</v>
+      </c>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I173">
+        <v>0.434473257906135</v>
+      </c>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I174">
+        <v>0.43456587613450898</v>
+      </c>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I175">
+        <v>0.434629236819563</v>
+      </c>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I176">
+        <v>0.43484268167853002</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I177">
+        <v>0.43514137424039601</v>
+      </c>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I178">
+        <v>0.43524221188682599</v>
+      </c>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I179">
+        <v>0.435387135722688</v>
+      </c>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I180">
+        <v>0.43557010227029502</v>
+      </c>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I181">
+        <v>0.43578780449429699</v>
+      </c>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I182">
+        <v>0.435981417247439</v>
+      </c>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I183">
+        <v>0.43614366857030001</v>
+      </c>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I184">
+        <v>0.43619767354675598</v>
+      </c>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I185">
+        <v>0.43629053238589599</v>
+      </c>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I186">
+        <v>0.43638067725363899</v>
+      </c>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I187">
+        <v>0.43641935636012902</v>
+      </c>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I188">
+        <v>0.43664249011387002</v>
+      </c>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I189">
+        <v>0.436712992973117</v>
+      </c>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I190">
+        <v>0.43708892705403402</v>
+      </c>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I191">
+        <v>0.43722093655216099</v>
+      </c>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I192">
+        <v>0.43730060777977697</v>
+      </c>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I193">
+        <v>0.43744358591725602</v>
+      </c>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I194">
+        <v>0.437693856145074</v>
+      </c>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I195">
+        <v>0.43778289671158299</v>
+      </c>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I196">
+        <v>0.438048124571363</v>
+      </c>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I197">
+        <v>0.43806440672079699</v>
+      </c>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I198">
+        <v>0.43818951544057899</v>
+      </c>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I199">
+        <v>0.43836020871376202</v>
+      </c>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I200">
+        <v>0.43853492277179101</v>
+      </c>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I201">
+        <v>0.43861799935282703</v>
+      </c>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I202">
+        <v>0.438776378857063</v>
+      </c>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I203">
+        <v>0.43893124299291503</v>
+      </c>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I204">
+        <v>0.43912040081914799</v>
+      </c>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I205">
+        <v>0.43936347751798599</v>
+      </c>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I206">
+        <v>0.43942187898832902</v>
+      </c>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I207">
+        <v>0.439666185403289</v>
+      </c>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I208">
+        <v>0.43982436958673699</v>
+      </c>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I209">
+        <v>0.44004486808257298</v>
+      </c>
+    </row>
+    <row r="210" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I210">
+        <v>0.44011908653055998</v>
+      </c>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I211">
+        <v>0.44032865723178599</v>
+      </c>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I212">
+        <v>0.44040462263538199</v>
+      </c>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I213">
+        <v>0.44064899147669601</v>
+      </c>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I214">
+        <v>0.44069010651486101</v>
+      </c>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I215">
+        <v>0.44073763759263701</v>
+      </c>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I216">
+        <v>0.44085135782763601</v>
+      </c>
+    </row>
+    <row r="217" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I217">
+        <v>0.44094580695715602</v>
+      </c>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I218">
+        <v>0.44108547951932597</v>
+      </c>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I219">
+        <v>0.441168374961388</v>
+      </c>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I220">
+        <v>0.44134404556692902</v>
+      </c>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I221">
+        <v>0.44143891011339798</v>
+      </c>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I222">
+        <v>0.44167192417301498</v>
+      </c>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I223">
+        <v>0.441820209462435</v>
+      </c>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I224">
+        <v>0.44195595118185599</v>
+      </c>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I225">
+        <v>0.44214024793215601</v>
+      </c>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I226">
+        <v>0.44230623807147001</v>
+      </c>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I227">
+        <v>0.44235349046980998</v>
+      </c>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I228">
+        <v>0.44240318441595999</v>
+      </c>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I229">
+        <v>0.44247421896362099</v>
+      </c>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I230">
+        <v>0.44268097654841898</v>
+      </c>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I231">
+        <v>0.44280469972748898</v>
+      </c>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I232">
+        <v>0.44293824125786102</v>
+      </c>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I233">
+        <v>0.44303952157413101</v>
+      </c>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I234">
+        <v>0.44326500973217597</v>
+      </c>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I235">
+        <v>0.44344772023441098</v>
+      </c>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I236">
+        <v>0.44357115280811099</v>
+      </c>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I237">
+        <v>0.44364866105459599</v>
+      </c>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I238">
+        <v>0.44375103713049102</v>
+      </c>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I239">
+        <v>0.44391153165223202</v>
+      </c>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I240">
+        <v>0.44410658252438501</v>
+      </c>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I241">
+        <v>0.44432383563570299</v>
+      </c>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I242">
+        <v>0.44457531183482701</v>
+      </c>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I243">
+        <v>0.44466486720936399</v>
+      </c>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I244">
+        <v>0.44481393626540999</v>
+      </c>
+    </row>
+    <row r="245" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I245">
+        <v>0.44494083761554098</v>
+      </c>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I246">
+        <v>0.44504805747986698</v>
+      </c>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I247">
+        <v>0.445214624156058</v>
+      </c>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I248">
+        <v>0.44543383512005902</v>
+      </c>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I249">
+        <v>0.44558348563609201</v>
+      </c>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I250">
+        <v>0.44583040491784598</v>
+      </c>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I251">
+        <v>0.44585270783175501</v>
+      </c>
+    </row>
+    <row r="252" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I252">
+        <v>0.44590331911530201</v>
+      </c>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I253">
+        <v>0.446016962405404</v>
+      </c>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I254">
+        <v>0.44618049179852798</v>
+      </c>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I255">
+        <v>0.446232241781086</v>
+      </c>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I256">
+        <v>0.44630746414037598</v>
+      </c>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I257">
+        <v>0.44639663789228201</v>
+      </c>
+    </row>
+    <row r="258" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I258">
+        <v>0.44657365041423402</v>
+      </c>
+    </row>
+    <row r="259" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I259">
+        <v>0.44673495671692998</v>
+      </c>
+    </row>
+    <row r="260" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I260">
+        <v>0.44681118714801399</v>
+      </c>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I261">
+        <v>0.44692367071850297</v>
+      </c>
+    </row>
+    <row r="262" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I262">
+        <v>0.44710421628761599</v>
+      </c>
+    </row>
+    <row r="263" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I263">
+        <v>0.44718212034952298</v>
+      </c>
+    </row>
+    <row r="264" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I264">
+        <v>0.44733322101779499</v>
+      </c>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I265">
+        <v>0.44747961719697499</v>
+      </c>
+    </row>
+    <row r="266" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I266">
+        <v>0.44765760227268198</v>
+      </c>
+    </row>
+    <row r="267" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I267">
+        <v>0.44770400629315199</v>
+      </c>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I268">
+        <v>0.44776166077830898</v>
+      </c>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I269">
+        <v>0.447889047084641</v>
+      </c>
+    </row>
+    <row r="270" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I270">
+        <v>0.44797594929283002</v>
+      </c>
+    </row>
+    <row r="271" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I271">
+        <v>0.44807811271895898</v>
+      </c>
+    </row>
+    <row r="272" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I272">
+        <v>0.448174300642112</v>
+      </c>
+    </row>
+    <row r="273" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I273">
+        <v>0.44838059404297098</v>
+      </c>
+    </row>
+    <row r="274" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I274">
+        <v>0.44842613821037902</v>
+      </c>
+    </row>
+    <row r="275" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I275">
+        <v>0.44848691844248201</v>
+      </c>
+    </row>
+    <row r="276" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I276">
+        <v>0.448566057514385</v>
+      </c>
+    </row>
+    <row r="277" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I277">
+        <v>0.44871564403647901</v>
+      </c>
+    </row>
+    <row r="278" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I278">
+        <v>0.44893220739865097</v>
+      </c>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I279">
+        <v>0.449020107947115</v>
+      </c>
+    </row>
+    <row r="280" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I280">
+        <v>0.449131786683514</v>
+      </c>
+    </row>
+    <row r="281" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I281">
+        <v>0.44926001458172699</v>
+      </c>
+    </row>
+    <row r="282" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I282">
+        <v>0.44938356316838501</v>
+      </c>
+    </row>
+    <row r="283" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I283">
+        <v>0.449456047963188</v>
+      </c>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I284">
+        <v>0.44969382504515598</v>
+      </c>
+    </row>
+    <row r="285" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I285">
+        <v>0.44995257785914999</v>
+      </c>
+    </row>
+    <row r="286" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I286">
+        <v>0.450177801573383</v>
+      </c>
+    </row>
+    <row r="287" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I287">
+        <v>0.45025634183551599</v>
+      </c>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I288">
+        <v>0.45029308578536098</v>
+      </c>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I289">
+        <v>0.450468536884924</v>
+      </c>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I290">
+        <v>0.45055143610895199</v>
+      </c>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I291">
+        <v>0.45062067858444899</v>
+      </c>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I292">
+        <v>0.45090267837161802</v>
+      </c>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I293">
+        <v>0.45107044147187703</v>
+      </c>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I294">
+        <v>0.45110084760256902</v>
+      </c>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I295">
+        <v>0.45126534317308897</v>
+      </c>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I296">
+        <v>0.45136630460171501</v>
+      </c>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I297">
+        <v>0.45150221084143</v>
+      </c>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I298">
+        <v>0.45162819398566001</v>
+      </c>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I299">
+        <v>0.45188367573148902</v>
+      </c>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I300">
+        <v>0.45201423541477398</v>
+      </c>
+    </row>
+    <row r="301" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I301">
+        <v>0.45220539431802798</v>
+      </c>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I302">
+        <v>0.452509716436297</v>
+      </c>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I303">
+        <v>0.45261873619788201</v>
+      </c>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I304">
+        <v>0.45268081796797699</v>
+      </c>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I305">
+        <v>0.45289821494243199</v>
+      </c>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I306">
+        <v>0.45304346719634597</v>
+      </c>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I307">
+        <v>0.45340791466786401</v>
+      </c>
+    </row>
+    <row r="308" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I308">
+        <v>0.45352702027953601</v>
+      </c>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I309">
+        <v>0.45360433602795303</v>
+      </c>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I310">
+        <v>0.45372592065038297</v>
+      </c>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I311">
+        <v>0.45381105263135502</v>
+      </c>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I312">
+        <v>0.45389932540438499</v>
+      </c>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I313">
+        <v>0.45401293605714299</v>
+      </c>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I314">
+        <v>0.45408737988411801</v>
+      </c>
+    </row>
+    <row r="315" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I315">
+        <v>0.45417382924790101</v>
+      </c>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I316">
+        <v>0.45426676684086098</v>
+      </c>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I317">
+        <v>0.454332406194697</v>
+      </c>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I318">
+        <v>0.45444958007542402</v>
+      </c>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I319">
+        <v>0.45453325610783601</v>
+      </c>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I320">
+        <v>0.45468615397648299</v>
+      </c>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I321">
+        <v>0.45484267499603898</v>
+      </c>
+    </row>
+    <row r="322" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I322">
+        <v>0.45501972265947399</v>
+      </c>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I323">
+        <v>0.45531058118960599</v>
+      </c>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I324">
+        <v>0.45542157550981099</v>
+      </c>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I325">
+        <v>0.45550939603170698</v>
+      </c>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I326">
+        <v>0.45553391582734698</v>
+      </c>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I327">
+        <v>0.45564953695250898</v>
+      </c>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I328">
+        <v>0.45582050021534898</v>
+      </c>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I329">
+        <v>0.45591984917894302</v>
+      </c>
+    </row>
+    <row r="330" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I330">
+        <v>0.45602040816653799</v>
+      </c>
+    </row>
+    <row r="331" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I331">
+        <v>0.456114507267536</v>
+      </c>
+    </row>
+    <row r="332" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I332">
+        <v>0.45627840063068298</v>
+      </c>
+    </row>
+    <row r="333" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I333">
+        <v>0.456387698106618</v>
+      </c>
+    </row>
+    <row r="334" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I334">
+        <v>0.45656089451142901</v>
+      </c>
+    </row>
+    <row r="335" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I335">
+        <v>0.45668241543530202</v>
+      </c>
+    </row>
+    <row r="336" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I336">
+        <v>0.45675318208655702</v>
+      </c>
+    </row>
+    <row r="337" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I337">
+        <v>0.45699946467767899</v>
+      </c>
+    </row>
+    <row r="338" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I338">
+        <v>0.45725090943741398</v>
+      </c>
+    </row>
+    <row r="339" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I339">
+        <v>0.45744991395725398</v>
+      </c>
+    </row>
+    <row r="340" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I340">
+        <v>0.45756416143123801</v>
+      </c>
+    </row>
+    <row r="341" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I341">
+        <v>0.457637374000402</v>
+      </c>
+    </row>
+    <row r="342" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I342">
+        <v>0.45769874530044802</v>
+      </c>
+    </row>
+    <row r="343" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I343">
+        <v>0.45785642364930701</v>
+      </c>
+    </row>
+    <row r="344" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I344">
+        <v>0.45788185513740998</v>
+      </c>
+    </row>
+    <row r="345" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I345">
+        <v>0.457950519931142</v>
+      </c>
+    </row>
+    <row r="346" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I346">
+        <v>0.45811009342909198</v>
+      </c>
+    </row>
+    <row r="347" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I347">
+        <v>0.45815521390882102</v>
+      </c>
+    </row>
+    <row r="348" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I348">
+        <v>0.45828981016873899</v>
+      </c>
+    </row>
+    <row r="349" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I349">
+        <v>0.45833261759621002</v>
+      </c>
+    </row>
+    <row r="350" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I350">
+        <v>0.45864636961295202</v>
+      </c>
+    </row>
+    <row r="351" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I351">
+        <v>0.45878744935221599</v>
+      </c>
+    </row>
+    <row r="352" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I352">
+        <v>0.45883582160033598</v>
+      </c>
+    </row>
+    <row r="353" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I353">
+        <v>0.45890945709359399</v>
+      </c>
+    </row>
+    <row r="354" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I354">
+        <v>0.45895681793600002</v>
+      </c>
+    </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I355">
+        <v>0.45904100243219398</v>
+      </c>
+    </row>
+    <row r="356" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I356">
+        <v>0.45923821840371398</v>
+      </c>
+    </row>
+    <row r="357" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I357">
+        <v>0.45927069361323802</v>
+      </c>
+    </row>
+    <row r="358" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I358">
+        <v>0.45944388432732503</v>
+      </c>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I359">
+        <v>0.45954151015769501</v>
+      </c>
+    </row>
+    <row r="360" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I360">
+        <v>0.45961800538849301</v>
+      </c>
+    </row>
+    <row r="361" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I361">
+        <v>0.45965031586194699</v>
+      </c>
+    </row>
+    <row r="362" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I362">
+        <v>0.45972340540253098</v>
+      </c>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I363">
+        <v>0.459769933728848</v>
+      </c>
+    </row>
+    <row r="364" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I364">
+        <v>0.45994631990067297</v>
+      </c>
+    </row>
+    <row r="365" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I365">
+        <v>0.46005263660551499</v>
+      </c>
+    </row>
+    <row r="366" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I366">
+        <v>0.46018805169135801</v>
+      </c>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I367">
+        <v>0.46028326358584998</v>
+      </c>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I368">
+        <v>0.46038198594277302</v>
+      </c>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I369">
+        <v>0.46053339447963199</v>
+      </c>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I370">
+        <v>0.46061144642677099</v>
+      </c>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I371">
+        <v>0.46064639807661301</v>
+      </c>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I372">
+        <v>0.46076004181354102</v>
+      </c>
+    </row>
+    <row r="373" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I373">
+        <v>0.46096906194662302</v>
+      </c>
+    </row>
+    <row r="374" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I374">
+        <v>0.461159139784803</v>
+      </c>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I375">
+        <v>0.46117901120188398</v>
+      </c>
+    </row>
+    <row r="376" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I376">
+        <v>0.46120558009650398</v>
+      </c>
+    </row>
+    <row r="377" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I377">
+        <v>0.46157111042417298</v>
+      </c>
+    </row>
+    <row r="378" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I378">
+        <v>0.46170603876273703</v>
+      </c>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I379">
+        <v>0.46183491538795102</v>
+      </c>
+    </row>
+    <row r="380" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I380">
+        <v>0.46195387180861602</v>
+      </c>
+    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I381">
+        <v>0.46209711670920001</v>
+      </c>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I382">
+        <v>0.46223157287288302</v>
+      </c>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I383">
+        <v>0.46238248967915102</v>
+      </c>
+    </row>
+    <row r="384" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I384">
+        <v>0.46251819109436099</v>
+      </c>
+    </row>
+    <row r="385" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I385">
+        <v>0.46258002099070999</v>
+      </c>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I386">
+        <v>0.46266854161876497</v>
+      </c>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I387">
+        <v>0.46276895997218698</v>
+      </c>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I388">
+        <v>0.46305309357825603</v>
+      </c>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I389">
+        <v>0.463246356902347</v>
+      </c>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I390">
+        <v>0.46325970438973102</v>
+      </c>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I391">
+        <v>0.46343372152744799</v>
+      </c>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I392">
+        <v>0.46361144656742698</v>
+      </c>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I393">
+        <v>0.4638249218669</v>
+      </c>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I394">
+        <v>0.46388906498958299</v>
+      </c>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I395">
+        <v>0.46395388029419399</v>
+      </c>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I396">
+        <v>0.46400774662899402</v>
+      </c>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I397">
+        <v>0.46416536665262897</v>
+      </c>
+    </row>
+    <row r="398" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I398">
+        <v>0.46420337803110401</v>
+      </c>
+    </row>
+    <row r="399" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I399">
+        <v>0.46449204743350597</v>
+      </c>
+    </row>
+    <row r="400" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I400">
+        <v>0.46469689986558299</v>
+      </c>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I401">
+        <v>0.46475235315080199</v>
+      </c>
+    </row>
+    <row r="402" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I402">
+        <v>0.464864456729287</v>
+      </c>
+    </row>
+    <row r="403" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I403">
+        <v>0.46497495124571298</v>
+      </c>
+    </row>
+    <row r="404" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I404">
+        <v>0.46512718032039801</v>
+      </c>
+    </row>
+    <row r="405" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I405">
+        <v>0.46521866908404003</v>
+      </c>
+    </row>
+    <row r="406" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I406">
+        <v>0.46535692686408597</v>
+      </c>
+    </row>
+    <row r="407" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I407">
+        <v>0.46541788537955198</v>
+      </c>
+    </row>
+    <row r="408" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I408">
+        <v>0.46562954836924902</v>
+      </c>
+    </row>
+    <row r="409" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I409">
+        <v>0.465784778244626</v>
+      </c>
+    </row>
+    <row r="410" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I410">
+        <v>0.46594837152194002</v>
+      </c>
+    </row>
+    <row r="411" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I411">
+        <v>0.46607431734865101</v>
+      </c>
+    </row>
+    <row r="412" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I412">
+        <v>0.466131988274057</v>
+      </c>
+    </row>
+    <row r="413" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I413">
+        <v>0.46616855717003902</v>
+      </c>
+    </row>
+    <row r="414" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I414">
+        <v>0.46629871515943699</v>
+      </c>
+    </row>
+    <row r="415" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I415">
+        <v>0.46636158266229899</v>
+      </c>
+    </row>
+    <row r="416" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I416">
+        <v>0.46644217091396001</v>
+      </c>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I417">
+        <v>0.46647788630498899</v>
+      </c>
+    </row>
+    <row r="418" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I418">
+        <v>0.46663949202861399</v>
+      </c>
+    </row>
+    <row r="419" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I419">
+        <v>0.46675121771575601</v>
+      </c>
+    </row>
+    <row r="420" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I420">
+        <v>0.46693890934403798</v>
+      </c>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I421">
+        <v>0.46705998816142502</v>
+      </c>
+    </row>
+    <row r="422" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I422">
+        <v>0.46716277733242001</v>
+      </c>
+    </row>
+    <row r="423" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I423">
+        <v>0.46730554304421801</v>
+      </c>
+    </row>
+    <row r="424" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I424">
+        <v>0.46737516192392198</v>
+      </c>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I425">
+        <v>0.467486967170614</v>
+      </c>
+    </row>
+    <row r="426" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I426">
+        <v>0.46761683286084599</v>
+      </c>
+    </row>
+    <row r="427" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I427">
+        <v>0.46785230110564802</v>
+      </c>
+    </row>
+    <row r="428" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I428">
+        <v>0.46791785493475002</v>
+      </c>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I429">
+        <v>0.46799151535323502</v>
+      </c>
+    </row>
+    <row r="430" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I430">
+        <v>0.46834516940485499</v>
+      </c>
+    </row>
+    <row r="431" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I431">
+        <v>0.46843551489601798</v>
+      </c>
+    </row>
+    <row r="432" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I432">
+        <v>0.46850593579122701</v>
+      </c>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I433">
+        <v>0.46862225458613999</v>
+      </c>
+    </row>
+    <row r="434" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I434">
+        <v>0.46875664333642902</v>
+      </c>
+    </row>
+    <row r="435" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I435">
+        <v>0.46886638823460403</v>
+      </c>
+    </row>
+    <row r="436" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I436">
+        <v>0.468932369523201</v>
+      </c>
+    </row>
+    <row r="437" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I437">
+        <v>0.46899958370219202</v>
+      </c>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I438">
+        <v>0.46929072688975998</v>
+      </c>
+    </row>
+    <row r="439" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I439">
+        <v>0.46932192058606098</v>
+      </c>
+    </row>
+    <row r="440" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I440">
+        <v>0.46945426890726899</v>
+      </c>
+    </row>
+    <row r="441" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I441">
+        <v>0.46954047133049998</v>
+      </c>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I442">
+        <v>0.46964656033740698</v>
+      </c>
+    </row>
+    <row r="443" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I443">
+        <v>0.46966112969817297</v>
+      </c>
+    </row>
+    <row r="444" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I444">
+        <v>0.469730234365836</v>
+      </c>
+    </row>
+    <row r="445" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I445">
+        <v>0.469746103277702</v>
+      </c>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I446">
+        <v>0.46981470856996999</v>
+      </c>
+    </row>
+    <row r="447" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I447">
+        <v>0.46990545570265002</v>
+      </c>
+    </row>
+    <row r="448" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I448">
+        <v>0.47002966982963201</v>
+      </c>
+    </row>
+    <row r="449" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I449">
+        <v>0.470212376646721</v>
+      </c>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I450">
+        <v>0.47031109689339201</v>
+      </c>
+    </row>
+    <row r="451" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I451">
+        <v>0.47042282563565502</v>
+      </c>
+    </row>
+    <row r="452" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I452">
+        <v>0.47047230078169</v>
+      </c>
+    </row>
+    <row r="453" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I453">
+        <v>0.47057052832984098</v>
+      </c>
+    </row>
+    <row r="454" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I454">
+        <v>0.47068316552258599</v>
+      </c>
+    </row>
+    <row r="455" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I455">
+        <v>0.47072458552058399</v>
+      </c>
+    </row>
+    <row r="456" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I456">
+        <v>0.47093453075390002</v>
+      </c>
+    </row>
+    <row r="457" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I457">
+        <v>0.47104511496113999</v>
+      </c>
+    </row>
+    <row r="458" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I458">
+        <v>0.47108613339376298</v>
+      </c>
+    </row>
+    <row r="459" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I459">
+        <v>0.47116099811628598</v>
+      </c>
+    </row>
+    <row r="460" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I460">
+        <v>0.47122881459820298</v>
+      </c>
+    </row>
+    <row r="461" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I461">
+        <v>0.47135689748559201</v>
+      </c>
+    </row>
+    <row r="462" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I462">
+        <v>0.47146691808123398</v>
+      </c>
+    </row>
+    <row r="463" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I463">
+        <v>0.47165149733476702</v>
+      </c>
+    </row>
+    <row r="464" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I464">
+        <v>0.47167323809358203</v>
+      </c>
+    </row>
+    <row r="465" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I465">
+        <v>0.47172386251711101</v>
+      </c>
+    </row>
+    <row r="466" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I466">
+        <v>0.47181985956413902</v>
+      </c>
+    </row>
+    <row r="467" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I467">
+        <v>0.47201071479141599</v>
+      </c>
+    </row>
+    <row r="468" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I468">
+        <v>0.47203350846814601</v>
+      </c>
+    </row>
+    <row r="469" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I469">
+        <v>0.47224632838814101</v>
+      </c>
+    </row>
+    <row r="470" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I470">
+        <v>0.47227537296635902</v>
+      </c>
+    </row>
+    <row r="471" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I471">
+        <v>0.47242060935706098</v>
+      </c>
+    </row>
+    <row r="472" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I472">
+        <v>0.47253353547784399</v>
+      </c>
+    </row>
+    <row r="473" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I473">
+        <v>0.47262327001155802</v>
+      </c>
+    </row>
+    <row r="474" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I474">
+        <v>0.47272866001869202</v>
+      </c>
+    </row>
+    <row r="475" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I475">
+        <v>0.47286956328876301</v>
+      </c>
+    </row>
+    <row r="476" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I476">
+        <v>0.47311721394608902</v>
+      </c>
+    </row>
+    <row r="477" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I477">
+        <v>0.47314892597215702</v>
+      </c>
+    </row>
+    <row r="478" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I478">
+        <v>0.47317815145457198</v>
+      </c>
+    </row>
+    <row r="479" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I479">
+        <v>0.473259502479356</v>
+      </c>
+    </row>
+    <row r="480" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I480">
+        <v>0.47335849133552599</v>
+      </c>
+    </row>
+    <row r="481" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I481">
+        <v>0.473431943784068</v>
+      </c>
+    </row>
+    <row r="482" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I482">
+        <v>0.47350400603459603</v>
+      </c>
+    </row>
+    <row r="483" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I483">
+        <v>0.47361169816233201</v>
+      </c>
+    </row>
+    <row r="484" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I484">
+        <v>0.47371311787475501</v>
+      </c>
+    </row>
+    <row r="485" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I485">
+        <v>0.47381600710476302</v>
+      </c>
+    </row>
+    <row r="486" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I486">
+        <v>0.47401720398868502</v>
+      </c>
+    </row>
+    <row r="487" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I487">
+        <v>0.474081366151475</v>
+      </c>
+    </row>
+    <row r="488" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I488">
+        <v>0.474202280399244</v>
+      </c>
+    </row>
+    <row r="489" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I489">
+        <v>0.474377994164563</v>
+      </c>
+    </row>
+    <row r="490" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I490">
+        <v>0.47449002165534798</v>
+      </c>
+    </row>
+    <row r="491" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I491">
+        <v>0.47459355297968497</v>
+      </c>
+    </row>
+    <row r="492" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I492">
+        <v>0.47472315708264101</v>
+      </c>
+    </row>
+    <row r="493" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I493">
+        <v>0.47486181623225099</v>
+      </c>
+    </row>
+    <row r="494" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I494">
+        <v>0.47489384997351403</v>
+      </c>
+    </row>
+    <row r="495" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I495">
+        <v>0.47494656431419002</v>
+      </c>
+    </row>
+    <row r="496" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I496">
+        <v>0.47508158957590901</v>
+      </c>
+    </row>
+    <row r="497" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I497">
+        <v>0.47524128269669103</v>
+      </c>
+    </row>
+    <row r="498" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I498">
+        <v>0.47538482772181001</v>
+      </c>
+    </row>
+    <row r="499" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I499">
+        <v>0.47566235348123398</v>
+      </c>
+    </row>
+    <row r="500" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I500">
+        <v>0.475729111884653</v>
+      </c>
+    </row>
+    <row r="501" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I501">
+        <v>0.47579889921998703</v>
+      </c>
+    </row>
+    <row r="502" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I502">
+        <v>0.47592202381941501</v>
+      </c>
+    </row>
+    <row r="503" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I503">
+        <v>0.47625769799842199</v>
+      </c>
+    </row>
+    <row r="504" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I504">
+        <v>0.47635519847879798</v>
+      </c>
+    </row>
+    <row r="505" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I505">
+        <v>0.47647530015009398</v>
+      </c>
+    </row>
+    <row r="506" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I506">
+        <v>0.47652854958942198</v>
+      </c>
+    </row>
+    <row r="507" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I507">
+        <v>0.47664077153596202</v>
+      </c>
+    </row>
+    <row r="508" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I508">
+        <v>0.47679518895659001</v>
+      </c>
+    </row>
+    <row r="509" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I509">
+        <v>0.47690833702274599</v>
+      </c>
+    </row>
+    <row r="510" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I510">
+        <v>0.47704087780592602</v>
+      </c>
+    </row>
+    <row r="511" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I511">
+        <v>0.47708258237064499</v>
+      </c>
+    </row>
+    <row r="512" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I512">
+        <v>0.47715389825801102</v>
+      </c>
+    </row>
+    <row r="513" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I513">
+        <v>0.47722735261666199</v>
+      </c>
+    </row>
+    <row r="514" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I514">
+        <v>0.4774058806275</v>
+      </c>
+    </row>
+    <row r="515" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I515">
+        <v>0.47774345584146999</v>
+      </c>
+    </row>
+    <row r="516" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I516">
+        <v>0.477787105217858</v>
+      </c>
+    </row>
+    <row r="517" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I517">
+        <v>0.47792680475856603</v>
+      </c>
+    </row>
+    <row r="518" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I518">
+        <v>0.47806723770384801</v>
+      </c>
+    </row>
+    <row r="519" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I519">
+        <v>0.47808899401006</v>
+      </c>
+    </row>
+    <row r="520" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I520">
+        <v>0.47823390759547602</v>
+      </c>
+    </row>
+    <row r="521" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I521">
+        <v>0.47830933427550698</v>
+      </c>
+    </row>
+    <row r="522" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I522">
+        <v>0.47837110174006697</v>
+      </c>
+    </row>
+    <row r="523" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I523">
+        <v>0.478396824473386</v>
+      </c>
+    </row>
+    <row r="524" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I524">
+        <v>0.47849146935805198</v>
+      </c>
+    </row>
+    <row r="525" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I525">
+        <v>0.47853569465104701</v>
+      </c>
+    </row>
+    <row r="526" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I526">
+        <v>0.47858194290056499</v>
+      </c>
+    </row>
+    <row r="527" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I527">
+        <v>0.47868431435148301</v>
+      </c>
+    </row>
+    <row r="528" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I528">
+        <v>0.47875227865002601</v>
+      </c>
+    </row>
+    <row r="529" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I529">
+        <v>0.47919252489570902</v>
+      </c>
+    </row>
+    <row r="530" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I530">
+        <v>0.47923207343792401</v>
+      </c>
+    </row>
+    <row r="531" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I531">
+        <v>0.47935670451857099</v>
+      </c>
+    </row>
+    <row r="532" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I532">
+        <v>0.479414357237753</v>
+      </c>
+    </row>
+    <row r="533" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I533">
+        <v>0.47961058671384299</v>
+      </c>
+    </row>
+    <row r="534" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I534">
+        <v>0.47970264699438397</v>
+      </c>
+    </row>
+    <row r="535" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I535">
+        <v>0.47974663428973102</v>
+      </c>
+    </row>
+    <row r="536" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I536">
+        <v>0.47987802622203601</v>
+      </c>
+    </row>
+    <row r="537" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I537">
+        <v>0.48001166671963802</v>
+      </c>
+    </row>
+    <row r="538" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I538">
+        <v>0.480052335445808</v>
+      </c>
+    </row>
+    <row r="539" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I539">
+        <v>0.480199665514083</v>
+      </c>
+    </row>
+    <row r="540" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I540">
+        <v>0.48029501536490599</v>
+      </c>
+    </row>
+    <row r="541" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I541">
+        <v>0.48044663438076102</v>
+      </c>
+    </row>
+    <row r="542" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I542">
+        <v>0.48057690897250999</v>
+      </c>
+    </row>
+    <row r="543" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I543">
+        <v>0.48069378989916201</v>
+      </c>
+    </row>
+    <row r="544" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I544">
+        <v>0.48093525978852403</v>
+      </c>
+    </row>
+    <row r="545" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I545">
+        <v>0.48100521767911097</v>
+      </c>
+    </row>
+    <row r="546" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I546">
+        <v>0.48109871980279001</v>
+      </c>
+    </row>
+    <row r="547" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I547">
+        <v>0.48131212460499501</v>
+      </c>
+    </row>
+    <row r="548" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I548">
+        <v>0.48137633505145699</v>
+      </c>
+    </row>
+    <row r="549" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I549">
+        <v>0.48141641810962699</v>
+      </c>
+    </row>
+    <row r="550" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I550">
+        <v>0.48143347823018701</v>
+      </c>
+    </row>
+    <row r="551" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I551">
+        <v>0.48161653252266401</v>
+      </c>
+    </row>
+    <row r="552" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I552">
+        <v>0.48186274340691099</v>
+      </c>
+    </row>
+    <row r="553" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I553">
+        <v>0.48188167920504099</v>
+      </c>
+    </row>
+    <row r="554" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I554">
+        <v>0.48195361932380298</v>
+      </c>
+    </row>
+    <row r="555" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I555">
+        <v>0.48204584513128002</v>
+      </c>
+    </row>
+    <row r="556" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I556">
+        <v>0.48210622331636699</v>
+      </c>
+    </row>
+    <row r="557" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I557">
+        <v>0.48215722999156801</v>
+      </c>
+    </row>
+    <row r="558" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I558">
+        <v>0.48228273289270701</v>
+      </c>
+    </row>
+    <row r="559" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I559">
+        <v>0.48236760968661102</v>
+      </c>
+    </row>
+    <row r="560" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I560">
+        <v>0.48239515478089701</v>
+      </c>
+    </row>
+    <row r="561" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I561">
+        <v>0.48252735789194101</v>
+      </c>
+    </row>
+    <row r="562" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I562">
+        <v>0.48260804297431897</v>
+      </c>
+    </row>
+    <row r="563" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I563">
+        <v>0.48270998035004598</v>
+      </c>
+    </row>
+    <row r="564" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I564">
+        <v>0.48283970577498603</v>
+      </c>
+    </row>
+    <row r="565" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I565">
+        <v>0.482967047560449</v>
+      </c>
+    </row>
+    <row r="566" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I566">
+        <v>0.48318936262423201</v>
+      </c>
+    </row>
+    <row r="567" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I567">
+        <v>0.48337953362432101</v>
+      </c>
+    </row>
+    <row r="568" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I568">
+        <v>0.48351569355007201</v>
+      </c>
+    </row>
+    <row r="569" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I569">
+        <v>0.48364425231643499</v>
+      </c>
+    </row>
+    <row r="570" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I570">
+        <v>0.48371838012158302</v>
+      </c>
+    </row>
+    <row r="571" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I571">
+        <v>0.48376131499014202</v>
+      </c>
+    </row>
+    <row r="572" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I572">
+        <v>0.48383601250206298</v>
+      </c>
+    </row>
+    <row r="573" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I573">
+        <v>0.48402186208954201</v>
+      </c>
+    </row>
+    <row r="574" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I574">
+        <v>0.484088195920575</v>
+      </c>
+    </row>
+    <row r="575" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I575">
+        <v>0.484126073952245</v>
+      </c>
+    </row>
+    <row r="576" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I576">
+        <v>0.48442155165485201</v>
+      </c>
+    </row>
+    <row r="577" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I577">
+        <v>0.48450762970047201</v>
+      </c>
+    </row>
+    <row r="578" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I578">
+        <v>0.48462062672399098</v>
+      </c>
+    </row>
+    <row r="579" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I579">
+        <v>0.48471172560884102</v>
+      </c>
+    </row>
+    <row r="580" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I580">
+        <v>0.48480189582675698</v>
+      </c>
+    </row>
+    <row r="581" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I581">
+        <v>0.484971633231986</v>
+      </c>
+    </row>
+    <row r="582" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I582">
+        <v>0.48505565725386002</v>
+      </c>
+    </row>
+    <row r="583" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I583">
+        <v>0.48524219531849899</v>
+      </c>
+    </row>
+    <row r="584" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I584">
+        <v>0.48533633888266697</v>
+      </c>
+    </row>
+    <row r="585" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I585">
+        <v>0.48542536527121599</v>
+      </c>
+    </row>
+    <row r="586" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I586">
+        <v>0.485462076281856</v>
+      </c>
+    </row>
+    <row r="587" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I587">
+        <v>0.48555764760713799</v>
+      </c>
+    </row>
+    <row r="588" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I588">
+        <v>0.48580887144697399</v>
+      </c>
+    </row>
+    <row r="589" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I589">
+        <v>0.485883564128125</v>
+      </c>
+    </row>
+    <row r="590" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I590">
+        <v>0.485954472439318</v>
+      </c>
+    </row>
+    <row r="591" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I591">
+        <v>0.48601536070705897</v>
+      </c>
+    </row>
+    <row r="592" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I592">
+        <v>0.48602641744386399</v>
+      </c>
+    </row>
+    <row r="593" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I593">
+        <v>0.48612312799756602</v>
+      </c>
+    </row>
+    <row r="594" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I594">
+        <v>0.48615518961937698</v>
+      </c>
+    </row>
+    <row r="595" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I595">
+        <v>0.48629987287987703</v>
+      </c>
+    </row>
+    <row r="596" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I596">
+        <v>0.48656483809359302</v>
+      </c>
+    </row>
+    <row r="597" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I597">
+        <v>0.48670054422950998</v>
+      </c>
+    </row>
+    <row r="598" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I598">
+        <v>0.48686651817131998</v>
+      </c>
+    </row>
+    <row r="599" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I599">
+        <v>0.48693363604025303</v>
+      </c>
+    </row>
+    <row r="600" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I600">
+        <v>0.48712906514978299</v>
+      </c>
+    </row>
+    <row r="601" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I601">
+        <v>0.48723290086431598</v>
+      </c>
+    </row>
+    <row r="602" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I602">
+        <v>0.48734116233916902</v>
+      </c>
+    </row>
+    <row r="603" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I603">
+        <v>0.48735047846076901</v>
+      </c>
+    </row>
+    <row r="604" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I604">
+        <v>0.48758545453004498</v>
+      </c>
+    </row>
+    <row r="605" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I605">
+        <v>0.487648711615841</v>
+      </c>
+    </row>
+    <row r="606" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I606">
+        <v>0.48773870278199599</v>
+      </c>
+    </row>
+    <row r="607" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I607">
+        <v>0.48776640429935503</v>
+      </c>
+    </row>
+    <row r="608" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I608">
+        <v>0.48783607456741102</v>
+      </c>
+    </row>
+    <row r="609" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I609">
+        <v>0.48795298012857102</v>
+      </c>
+    </row>
+    <row r="610" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I610">
+        <v>0.48808312139458798</v>
+      </c>
+    </row>
+    <row r="611" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I611">
+        <v>0.48812224344782101</v>
+      </c>
+    </row>
+    <row r="612" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I612">
+        <v>0.48827810843123698</v>
+      </c>
+    </row>
+    <row r="613" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I613">
+        <v>0.48840796060369401</v>
+      </c>
+    </row>
+    <row r="614" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I614">
+        <v>0.48855235440696698</v>
+      </c>
+    </row>
+    <row r="615" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I615">
+        <v>0.48858579708741301</v>
+      </c>
+    </row>
+    <row r="616" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I616">
+        <v>0.48868633716684301</v>
+      </c>
+    </row>
+    <row r="617" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I617">
+        <v>0.48890893699599502</v>
+      </c>
+    </row>
+    <row r="618" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I618">
+        <v>0.48905403962504101</v>
+      </c>
+    </row>
+    <row r="619" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I619">
+        <v>0.48924223570893399</v>
+      </c>
+    </row>
+    <row r="620" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I620">
+        <v>0.489437419375435</v>
+      </c>
+    </row>
+    <row r="621" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I621">
+        <v>0.489481079976193</v>
+      </c>
+    </row>
+    <row r="622" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I622">
+        <v>0.48967449452753198</v>
+      </c>
+    </row>
+    <row r="623" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I623">
+        <v>0.489728805805759</v>
+      </c>
+    </row>
+    <row r="624" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I624">
+        <v>0.49000224887716898</v>
+      </c>
+    </row>
+    <row r="625" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I625">
+        <v>0.490202333710616</v>
+      </c>
+    </row>
+    <row r="626" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I626">
+        <v>0.49032091598268901</v>
+      </c>
+    </row>
+    <row r="627" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I627">
+        <v>0.490428947937671</v>
+      </c>
+    </row>
+    <row r="628" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I628">
+        <v>0.49061080592233203</v>
+      </c>
+    </row>
+    <row r="629" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I629">
+        <v>0.49071233324010599</v>
+      </c>
+    </row>
+    <row r="630" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I630">
+        <v>0.49087594629595799</v>
+      </c>
+    </row>
+    <row r="631" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I631">
+        <v>0.49091768058330199</v>
+      </c>
+    </row>
+    <row r="632" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I632">
+        <v>0.49128551781916402</v>
+      </c>
+    </row>
+    <row r="633" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I633">
+        <v>0.49146207703711597</v>
+      </c>
+    </row>
+    <row r="634" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I634">
+        <v>0.49160992554810001</v>
+      </c>
+    </row>
+    <row r="635" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I635">
+        <v>0.49184925253769801</v>
+      </c>
+    </row>
+    <row r="636" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I636">
+        <v>0.491958778554693</v>
+      </c>
+    </row>
+    <row r="637" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I637">
+        <v>0.49202735640725198</v>
+      </c>
+    </row>
+    <row r="638" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I638">
+        <v>0.49216535237415798</v>
+      </c>
+    </row>
+    <row r="639" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I639">
+        <v>0.49226948269364501</v>
+      </c>
+    </row>
+    <row r="640" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I640">
+        <v>0.49237402558916699</v>
+      </c>
+    </row>
+    <row r="641" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I641">
+        <v>0.49244593078982302</v>
+      </c>
+    </row>
+    <row r="642" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I642">
+        <v>0.49251141929664</v>
+      </c>
+    </row>
+    <row r="643" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I643">
+        <v>0.49263832730026003</v>
+      </c>
+    </row>
+    <row r="644" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I644">
+        <v>0.49271279672551899</v>
+      </c>
+    </row>
+    <row r="645" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I645">
+        <v>0.492763823274534</v>
+      </c>
+    </row>
+    <row r="646" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I646">
+        <v>0.492858500804643</v>
+      </c>
+    </row>
+    <row r="647" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I647">
+        <v>0.49304800212038102</v>
+      </c>
+    </row>
+    <row r="648" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I648">
+        <v>0.49310044448826501</v>
+      </c>
+    </row>
+    <row r="649" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I649">
+        <v>0.49316303728685401</v>
+      </c>
+    </row>
+    <row r="650" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I650">
+        <v>0.49330719017139801</v>
+      </c>
+    </row>
+    <row r="651" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I651">
+        <v>0.49356870856555002</v>
+      </c>
+    </row>
+    <row r="652" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I652">
+        <v>0.49375765414127898</v>
+      </c>
+    </row>
+    <row r="653" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I653">
+        <v>0.49382180896919498</v>
+      </c>
+    </row>
+    <row r="654" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I654">
+        <v>0.49389549679920097</v>
+      </c>
+    </row>
+    <row r="655" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I655">
+        <v>0.49406623583414599</v>
+      </c>
+    </row>
+    <row r="656" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I656">
+        <v>0.49430675797629697</v>
+      </c>
+    </row>
+    <row r="657" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I657">
+        <v>0.49432441809604399</v>
+      </c>
+    </row>
+    <row r="658" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I658">
+        <v>0.49436229118302699</v>
+      </c>
+    </row>
+    <row r="659" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I659">
+        <v>0.49443996078378</v>
+      </c>
+    </row>
+    <row r="660" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I660">
+        <v>0.49449962558011801</v>
+      </c>
+    </row>
+    <row r="661" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I661">
+        <v>0.49456148236449698</v>
+      </c>
+    </row>
+    <row r="662" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I662">
+        <v>0.49459858029070403</v>
+      </c>
+    </row>
+    <row r="663" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I663">
+        <v>0.49464892703366797</v>
+      </c>
+    </row>
+    <row r="664" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I664">
+        <v>0.49468671421569199</v>
+      </c>
+    </row>
+    <row r="665" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I665">
+        <v>0.49475503053511399</v>
+      </c>
+    </row>
+    <row r="666" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I666">
+        <v>0.49493211710762502</v>
+      </c>
+    </row>
+    <row r="667" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I667">
+        <v>0.49500279226965799</v>
+      </c>
+    </row>
+    <row r="668" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I668">
+        <v>0.49508726429584898</v>
+      </c>
+    </row>
+    <row r="669" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I669">
+        <v>0.49517847696037398</v>
+      </c>
+    </row>
+    <row r="670" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I670">
+        <v>0.49533694080882601</v>
+      </c>
+    </row>
+    <row r="671" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I671">
+        <v>0.49547945414642097</v>
+      </c>
+    </row>
+    <row r="672" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I672">
+        <v>0.49555711916628498</v>
+      </c>
+    </row>
+    <row r="673" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I673">
+        <v>0.495689913310911</v>
+      </c>
+    </row>
+    <row r="674" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I674">
+        <v>0.49582319075527698</v>
+      </c>
+    </row>
+    <row r="675" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I675">
+        <v>0.49587244837455402</v>
+      </c>
+    </row>
+    <row r="676" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I676">
+        <v>0.49613882050675001</v>
+      </c>
+    </row>
+    <row r="677" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I677">
+        <v>0.49623463809525598</v>
+      </c>
+    </row>
+    <row r="678" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I678">
+        <v>0.49634039788624601</v>
+      </c>
+    </row>
+    <row r="679" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I679">
+        <v>0.49647108844808702</v>
+      </c>
+    </row>
+    <row r="680" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I680">
+        <v>0.49668859316059299</v>
+      </c>
+    </row>
+    <row r="681" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I681">
+        <v>0.496769010375819</v>
+      </c>
+    </row>
+    <row r="682" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I682">
+        <v>0.49686285403297198</v>
+      </c>
+    </row>
+    <row r="683" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I683">
+        <v>0.49697794239144899</v>
+      </c>
+    </row>
+    <row r="684" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I684">
+        <v>0.49704121060956002</v>
+      </c>
+    </row>
+    <row r="685" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I685">
+        <v>0.49715699900023902</v>
+      </c>
+    </row>
+    <row r="686" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I686">
+        <v>0.49743830039449199</v>
+      </c>
+    </row>
+    <row r="687" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I687">
+        <v>0.49761669086349097</v>
+      </c>
+    </row>
+    <row r="688" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I688">
+        <v>0.49772921961896199</v>
+      </c>
+    </row>
+    <row r="689" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I689">
+        <v>0.49790766767375799</v>
+      </c>
+    </row>
+    <row r="690" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I690">
+        <v>0.498124727038041</v>
+      </c>
+    </row>
+    <row r="691" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I691">
+        <v>0.49814789721104002</v>
+      </c>
+    </row>
+    <row r="692" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I692">
+        <v>0.49824804980509002</v>
+      </c>
+    </row>
+    <row r="693" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I693">
+        <v>0.49832968843041697</v>
+      </c>
+    </row>
+    <row r="694" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I694">
+        <v>0.49842268834801201</v>
+      </c>
+    </row>
+    <row r="695" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I695">
+        <v>0.49852654425634102</v>
+      </c>
+    </row>
+    <row r="696" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I696">
+        <v>0.49864193105609</v>
+      </c>
+    </row>
+    <row r="697" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I697">
+        <v>0.498740552188283</v>
+      </c>
+    </row>
+    <row r="698" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I698">
+        <v>0.498842370860693</v>
+      </c>
+    </row>
+    <row r="699" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I699">
+        <v>0.49889717105848402</v>
+      </c>
+    </row>
+    <row r="700" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I700">
+        <v>0.49891072623436</v>
+      </c>
+    </row>
+    <row r="701" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I701">
+        <v>0.49910023484170002</v>
+      </c>
+    </row>
+    <row r="702" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I702">
+        <v>0.49914886513664403</v>
+      </c>
+    </row>
+    <row r="703" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I703">
+        <v>0.49944073783398302</v>
+      </c>
+    </row>
+    <row r="704" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I704">
+        <v>0.49955289803814901</v>
+      </c>
+    </row>
+    <row r="705" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I705">
+        <v>0.49967486071422601</v>
+      </c>
+    </row>
+    <row r="706" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I706">
+        <v>0.49968916682107101</v>
+      </c>
+    </row>
+    <row r="707" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I707">
+        <v>0.49974354335480797</v>
+      </c>
+    </row>
+    <row r="708" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I708">
+        <v>0.49985459209943101</v>
+      </c>
+    </row>
+    <row r="709" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I709">
+        <v>0.499923837037486</v>
+      </c>
+    </row>
+    <row r="710" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I710">
+        <v>0.50004166919093096</v>
+      </c>
+    </row>
+    <row r="711" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I711">
+        <v>0.50013238049414499</v>
+      </c>
+    </row>
+    <row r="712" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I712">
+        <v>0.50032575244891098</v>
+      </c>
+    </row>
+    <row r="713" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I713">
+        <v>0.50037256568145805</v>
+      </c>
+    </row>
+    <row r="714" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I714">
+        <v>0.500468467129359</v>
+      </c>
+    </row>
+    <row r="715" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I715">
+        <v>0.50059060626732099</v>
+      </c>
+    </row>
+    <row r="716" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I716">
+        <v>0.50073144140178605</v>
+      </c>
+    </row>
+    <row r="717" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I717">
+        <v>0.50080225498282105</v>
+      </c>
+    </row>
+    <row r="718" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I718">
+        <v>0.50088211367504198</v>
+      </c>
+    </row>
+    <row r="719" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I719">
+        <v>0.501011716897798</v>
+      </c>
+    </row>
+    <row r="720" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I720">
+        <v>0.50105216785947304</v>
+      </c>
+    </row>
+    <row r="721" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I721">
+        <v>0.50114709393404699</v>
+      </c>
+    </row>
+    <row r="722" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I722">
+        <v>0.50132998340160295</v>
+      </c>
+    </row>
+    <row r="723" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I723">
+        <v>0.50168269341652405</v>
+      </c>
+    </row>
+    <row r="724" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I724">
+        <v>0.50206478618816797</v>
+      </c>
+    </row>
+    <row r="725" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I725">
+        <v>0.50212840845954598</v>
+      </c>
+    </row>
+    <row r="726" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I726">
+        <v>0.50225223403521702</v>
+      </c>
+    </row>
+    <row r="727" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I727">
+        <v>0.50234608808299197</v>
+      </c>
+    </row>
+    <row r="728" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I728">
+        <v>0.50263991419684295</v>
+      </c>
+    </row>
+    <row r="729" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I729">
+        <v>0.50266315625563196</v>
+      </c>
+    </row>
+    <row r="730" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I730">
+        <v>0.50272465612684303</v>
+      </c>
+    </row>
+    <row r="731" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I731">
+        <v>0.50285414406379803</v>
+      </c>
+    </row>
+    <row r="732" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I732">
+        <v>0.50287857971236305</v>
+      </c>
+    </row>
+    <row r="733" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I733">
+        <v>0.50301391568085896</v>
+      </c>
+    </row>
+    <row r="734" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I734">
+        <v>0.50310142275701197</v>
+      </c>
+    </row>
+    <row r="735" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I735">
+        <v>0.50332852633916003</v>
+      </c>
+    </row>
+    <row r="736" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I736">
+        <v>0.50347230875569804</v>
+      </c>
+    </row>
+    <row r="737" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I737">
+        <v>0.50357105922937295</v>
+      </c>
+    </row>
+    <row r="738" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I738">
+        <v>0.50360404477014797</v>
+      </c>
+    </row>
+    <row r="739" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I739">
+        <v>0.50384446167424202</v>
+      </c>
+    </row>
+    <row r="740" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I740">
+        <v>0.50391659710414705</v>
+      </c>
+    </row>
+    <row r="741" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I741">
+        <v>0.50399640295281201</v>
+      </c>
+    </row>
+    <row r="742" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I742">
+        <v>0.50412428982852897</v>
+      </c>
+    </row>
+    <row r="743" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I743">
+        <v>0.50420011779962304</v>
+      </c>
+    </row>
+    <row r="744" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I744">
+        <v>0.50457549782278799</v>
+      </c>
+    </row>
+    <row r="745" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I745">
+        <v>0.50476152371681504</v>
+      </c>
+    </row>
+    <row r="746" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I746">
+        <v>0.50490265379633503</v>
+      </c>
+    </row>
+    <row r="747" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I747">
+        <v>0.50503335280143702</v>
+      </c>
+    </row>
+    <row r="748" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I748">
+        <v>0.50519287243572897</v>
+      </c>
+    </row>
+    <row r="749" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I749">
+        <v>0.50525461037970698</v>
+      </c>
+    </row>
+    <row r="750" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I750">
+        <v>0.50551026442932201</v>
+      </c>
+    </row>
+    <row r="751" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I751">
+        <v>0.50557609627812705</v>
+      </c>
+    </row>
+    <row r="752" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I752">
+        <v>0.50566279029857597</v>
+      </c>
+    </row>
+    <row r="753" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I753">
+        <v>0.50581815071391101</v>
+      </c>
+    </row>
+    <row r="754" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I754">
+        <v>0.50596266556639602</v>
+      </c>
+    </row>
+    <row r="755" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I755">
+        <v>0.50608312463497696</v>
+      </c>
+    </row>
+    <row r="756" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I756">
+        <v>0.50617347255767098</v>
+      </c>
+    </row>
+    <row r="757" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I757">
+        <v>0.50633493299594901</v>
+      </c>
+    </row>
+    <row r="758" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I758">
+        <v>0.50646101022527701</v>
+      </c>
+    </row>
+    <row r="759" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I759">
+        <v>0.50652478386963395</v>
+      </c>
+    </row>
+    <row r="760" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I760">
+        <v>0.50656216953594602</v>
+      </c>
+    </row>
+    <row r="761" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I761">
+        <v>0.50669312818350098</v>
+      </c>
+    </row>
+    <row r="762" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I762">
+        <v>0.50692345029247698</v>
+      </c>
+    </row>
+    <row r="763" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I763">
+        <v>0.50697442488399103</v>
+      </c>
+    </row>
+    <row r="764" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I764">
+        <v>0.50703940777661105</v>
+      </c>
+    </row>
+    <row r="765" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I765">
+        <v>0.50708944294326197</v>
+      </c>
+    </row>
+    <row r="766" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I766">
+        <v>0.50718877910308302</v>
+      </c>
+    </row>
+    <row r="767" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I767">
+        <v>0.50740453763687199</v>
+      </c>
+    </row>
+    <row r="768" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I768">
+        <v>0.50748899679837101</v>
+      </c>
+    </row>
+    <row r="769" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I769">
+        <v>0.50753168840554397</v>
+      </c>
+    </row>
+    <row r="770" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I770">
+        <v>0.507750904106124</v>
+      </c>
+    </row>
+    <row r="771" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I771">
+        <v>0.50792165072815898</v>
+      </c>
+    </row>
+    <row r="772" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I772">
+        <v>0.50798860920521605</v>
+      </c>
+    </row>
+    <row r="773" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I773">
+        <v>0.50809679759388104</v>
+      </c>
+    </row>
+    <row r="774" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I774">
+        <v>0.50819382649318401</v>
+      </c>
+    </row>
+    <row r="775" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I775">
+        <v>0.50833362356485601</v>
+      </c>
+    </row>
+    <row r="776" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I776">
+        <v>0.50858168793420699</v>
+      </c>
+    </row>
+    <row r="777" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I777">
+        <v>0.50873786141635002</v>
+      </c>
+    </row>
+    <row r="778" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I778">
+        <v>0.50883142580044205</v>
+      </c>
+    </row>
+    <row r="779" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I779">
+        <v>0.50900200544951002</v>
+      </c>
+    </row>
+    <row r="780" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I780">
+        <v>0.50907609042277902</v>
+      </c>
+    </row>
+    <row r="781" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I781">
+        <v>0.50912446273196998</v>
+      </c>
+    </row>
+    <row r="782" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I782">
+        <v>0.50932476154849304</v>
+      </c>
+    </row>
+    <row r="783" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I783">
+        <v>0.50954072834731701</v>
+      </c>
+    </row>
+    <row r="784" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I784">
+        <v>0.50985024851563499</v>
+      </c>
+    </row>
+    <row r="785" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I785">
+        <v>0.50991035878728397</v>
+      </c>
+    </row>
+    <row r="786" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I786">
+        <v>0.51002573607609303</v>
+      </c>
+    </row>
+    <row r="787" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I787">
+        <v>0.51022039448546996</v>
+      </c>
+    </row>
+    <row r="788" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I788">
+        <v>0.51030943290902397</v>
+      </c>
+    </row>
+    <row r="789" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I789">
+        <v>0.51039666309615905</v>
+      </c>
+    </row>
+    <row r="790" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I790">
+        <v>0.51049671320475598</v>
+      </c>
+    </row>
+    <row r="791" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I791">
+        <v>0.510535436683074</v>
+      </c>
+    </row>
+    <row r="792" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I792">
+        <v>0.51069459595922395</v>
+      </c>
+    </row>
+    <row r="793" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I793">
+        <v>0.51087498513219498</v>
+      </c>
+    </row>
+    <row r="794" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I794">
+        <v>0.51098177388971699</v>
+      </c>
+    </row>
+    <row r="795" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I795">
+        <v>0.51122929326280198</v>
+      </c>
+    </row>
+    <row r="796" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I796">
+        <v>0.51130745610380002</v>
+      </c>
+    </row>
+    <row r="797" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I797">
+        <v>0.51151001026660603</v>
+      </c>
+    </row>
+    <row r="798" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I798">
+        <v>0.51169914620230506</v>
+      </c>
+    </row>
+    <row r="799" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I799">
+        <v>0.51203303159799995</v>
+      </c>
+    </row>
+    <row r="800" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I800">
+        <v>0.51230648015109503</v>
+      </c>
+    </row>
+    <row r="801" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I801">
+        <v>0.51232886368771102</v>
+      </c>
+    </row>
+    <row r="802" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I802">
+        <v>0.51240457599873401</v>
+      </c>
+    </row>
+    <row r="803" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I803">
+        <v>0.51248013298306705</v>
+      </c>
+    </row>
+    <row r="804" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I804">
+        <v>0.51269782182907198</v>
+      </c>
+    </row>
+    <row r="805" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I805">
+        <v>0.51289220913534905</v>
+      </c>
+    </row>
+    <row r="806" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I806">
+        <v>0.51305943537235599</v>
+      </c>
+    </row>
+    <row r="807" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I807">
+        <v>0.51325835340989301</v>
+      </c>
+    </row>
+    <row r="808" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I808">
+        <v>0.51359104750766305</v>
+      </c>
+    </row>
+    <row r="809" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I809">
+        <v>0.51381617008417402</v>
+      </c>
+    </row>
+    <row r="810" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I810">
+        <v>0.51392193627748195</v>
+      </c>
+    </row>
+    <row r="811" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I811">
+        <v>0.51403405326621199</v>
+      </c>
+    </row>
+    <row r="812" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I812">
+        <v>0.51426650949569797</v>
+      </c>
+    </row>
+    <row r="813" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I813">
+        <v>0.51443944620042403</v>
+      </c>
+    </row>
+    <row r="814" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I814">
+        <v>0.51469292334510697</v>
+      </c>
+    </row>
+    <row r="815" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I815">
+        <v>0.51502893901630797</v>
+      </c>
+    </row>
+    <row r="816" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I816">
+        <v>0.51526547304652603</v>
+      </c>
+    </row>
+    <row r="817" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I817">
+        <v>0.51550847242092901</v>
+      </c>
+    </row>
+    <row r="818" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I818">
+        <v>0.51554338046241799</v>
+      </c>
+    </row>
+    <row r="819" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I819">
+        <v>0.51582512777957701</v>
+      </c>
+    </row>
+    <row r="820" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I820">
+        <v>0.51618488695345599</v>
+      </c>
+    </row>
+    <row r="821" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I821">
+        <v>0.51650616626294699</v>
+      </c>
+    </row>
+    <row r="822" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I822">
+        <v>0.51678655078886804</v>
+      </c>
+    </row>
+    <row r="823" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I823">
+        <v>0.51694322284515504</v>
+      </c>
+    </row>
+    <row r="824" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I824">
+        <v>0.51695104247938595</v>
+      </c>
+    </row>
+    <row r="825" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I825">
+        <v>0.51740802350889903</v>
+      </c>
+    </row>
+    <row r="826" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I826">
+        <v>0.51752941688696696</v>
+      </c>
+    </row>
+    <row r="827" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I827">
+        <v>0.517754009000017</v>
+      </c>
+    </row>
+    <row r="828" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I828">
+        <v>0.51792580570756097</v>
+      </c>
+    </row>
+    <row r="829" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I829">
+        <v>0.51797929452860803</v>
+      </c>
+    </row>
+    <row r="830" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I830">
+        <v>0.51810519415564105</v>
+      </c>
+    </row>
+    <row r="831" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I831">
+        <v>0.51820070032329502</v>
+      </c>
+    </row>
+    <row r="832" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I832">
+        <v>0.51838817886355504</v>
+      </c>
+    </row>
+    <row r="833" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I833">
+        <v>0.518442866715634</v>
+      </c>
+    </row>
+    <row r="834" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I834">
+        <v>0.51870216164752603</v>
+      </c>
+    </row>
+    <row r="835" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I835">
+        <v>0.51884751908026905</v>
+      </c>
+    </row>
+    <row r="836" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I836">
+        <v>0.51894082147798903</v>
+      </c>
+    </row>
+    <row r="837" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I837">
+        <v>0.51917137682511505</v>
+      </c>
+    </row>
+    <row r="838" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I838">
+        <v>0.51934737397969299</v>
+      </c>
+    </row>
+    <row r="839" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I839">
+        <v>0.51943491988217905</v>
+      </c>
+    </row>
+    <row r="840" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I840">
+        <v>0.51957767781021702</v>
+      </c>
+    </row>
+    <row r="841" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I841">
+        <v>0.51962241837322998</v>
+      </c>
+    </row>
+    <row r="842" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I842">
+        <v>0.51985537360973999</v>
+      </c>
+    </row>
+    <row r="843" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I843">
+        <v>0.51998176167232502</v>
+      </c>
+    </row>
+    <row r="844" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I844">
+        <v>0.52016209125235002</v>
+      </c>
+    </row>
+    <row r="845" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I845">
+        <v>0.52024673910711206</v>
+      </c>
+    </row>
+    <row r="846" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I846">
+        <v>0.520443069776655</v>
+      </c>
+    </row>
+    <row r="847" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I847">
+        <v>0.52068845419486098</v>
+      </c>
+    </row>
+    <row r="848" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I848">
+        <v>0.52092537110439796</v>
+      </c>
+    </row>
+    <row r="849" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I849">
+        <v>0.52106672305616097</v>
+      </c>
+    </row>
+    <row r="850" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I850">
+        <v>0.52111773268681705</v>
+      </c>
+    </row>
+    <row r="851" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I851">
+        <v>0.52132445959662199</v>
+      </c>
+    </row>
+    <row r="852" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I852">
+        <v>0.52163914187795402</v>
+      </c>
+    </row>
+    <row r="853" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I853">
+        <v>0.52171530941577404</v>
+      </c>
+    </row>
+    <row r="854" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I854">
+        <v>0.52186317463694498</v>
+      </c>
+    </row>
+    <row r="855" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I855">
+        <v>0.52203088028554601</v>
+      </c>
+    </row>
+    <row r="856" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I856">
+        <v>0.52220924195726803</v>
+      </c>
+    </row>
+    <row r="857" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I857">
+        <v>0.52241985531046597</v>
+      </c>
+    </row>
+    <row r="858" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I858">
+        <v>0.52258766290715097</v>
+      </c>
+    </row>
+    <row r="859" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I859">
+        <v>0.52286362970688904</v>
+      </c>
+    </row>
+    <row r="860" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I860">
+        <v>0.52289936580972696</v>
+      </c>
+    </row>
+    <row r="861" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I861">
+        <v>0.52292717639438502</v>
+      </c>
+    </row>
+    <row r="862" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I862">
+        <v>0.52305212621604003</v>
+      </c>
+    </row>
+    <row r="863" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I863">
+        <v>0.52312620107055696</v>
+      </c>
+    </row>
+    <row r="864" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I864">
+        <v>0.52323007797353105</v>
+      </c>
+    </row>
+    <row r="865" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I865">
+        <v>0.52334620216262995</v>
+      </c>
+    </row>
+    <row r="866" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I866">
+        <v>0.52343524821630505</v>
+      </c>
+    </row>
+    <row r="867" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I867">
+        <v>0.52387015921142699</v>
+      </c>
+    </row>
+    <row r="868" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I868">
+        <v>0.52431505733605299</v>
+      </c>
+    </row>
+    <row r="869" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I869">
+        <v>0.52471106119671296</v>
+      </c>
+    </row>
+    <row r="870" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I870">
+        <v>0.52504772041133196</v>
+      </c>
+    </row>
+    <row r="871" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I871">
+        <v>0.52524616627471898</v>
+      </c>
+    </row>
+    <row r="872" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I872">
+        <v>0.52556846583460304</v>
+      </c>
+    </row>
+    <row r="873" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I873">
+        <v>0.52583778062961495</v>
+      </c>
+    </row>
+    <row r="874" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I874">
+        <v>0.52629717829511502</v>
+      </c>
+    </row>
+    <row r="875" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I875">
+        <v>0.52687616550955896</v>
+      </c>
+    </row>
+    <row r="876" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I876">
+        <v>0.52718283383176501</v>
+      </c>
+    </row>
+    <row r="877" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I877">
+        <v>0.52730191024580597</v>
+      </c>
+    </row>
+    <row r="878" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I878">
+        <v>0.52740943234988402</v>
+      </c>
+    </row>
+    <row r="879" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I879">
+        <v>0.527712821537201</v>
+      </c>
+    </row>
+    <row r="880" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I880">
+        <v>0.52810655873975698</v>
+      </c>
+    </row>
+    <row r="881" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I881">
+        <v>0.52819380101575897</v>
+      </c>
+    </row>
+    <row r="882" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I882">
+        <v>0.52864035739090898</v>
+      </c>
+    </row>
+    <row r="883" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I883">
+        <v>0.528763872135947</v>
+      </c>
+    </row>
+    <row r="884" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I884">
+        <v>0.52901628450900695</v>
+      </c>
+    </row>
+    <row r="885" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I885">
+        <v>0.52948148966456898</v>
+      </c>
+    </row>
+    <row r="886" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I886">
+        <v>0.52972949507834699</v>
+      </c>
+    </row>
+    <row r="887" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I887">
+        <v>0.52998704586555601</v>
+      </c>
+    </row>
+    <row r="888" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I888">
+        <v>0.53010296757512498</v>
+      </c>
+    </row>
+    <row r="889" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I889">
+        <v>0.53037522650584801</v>
+      </c>
+    </row>
+    <row r="890" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I890">
+        <v>0.53081277038475805</v>
+      </c>
+    </row>
+    <row r="891" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I891">
+        <v>0.53108928769973895</v>
+      </c>
+    </row>
+    <row r="892" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I892">
+        <v>0.53152952206972903</v>
+      </c>
+    </row>
+    <row r="893" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I893">
+        <v>0.53185316133655103</v>
+      </c>
+    </row>
+    <row r="894" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I894">
+        <v>0.53215618462963399</v>
+      </c>
+    </row>
+    <row r="895" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I895">
+        <v>0.53257494491861201</v>
+      </c>
+    </row>
+    <row r="896" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I896">
+        <v>0.53307414022186095</v>
+      </c>
+    </row>
+    <row r="897" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I897">
+        <v>0.53323399243800595</v>
+      </c>
+    </row>
+    <row r="898" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I898">
+        <v>0.53334232368590695</v>
+      </c>
+    </row>
+    <row r="899" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I899">
+        <v>0.533662219107642</v>
+      </c>
+    </row>
+    <row r="900" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I900">
+        <v>0.533786132810807</v>
+      </c>
+    </row>
+    <row r="901" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I901">
+        <v>0.53399821972321704</v>
+      </c>
+    </row>
+    <row r="902" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I902">
+        <v>0.53437732597320498</v>
+      </c>
+    </row>
+    <row r="903" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I903">
+        <v>0.53475961426992003</v>
+      </c>
+    </row>
+    <row r="904" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I904">
+        <v>0.53490015720319195</v>
+      </c>
+    </row>
+    <row r="905" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I905">
+        <v>0.53517538463641601</v>
+      </c>
+    </row>
+    <row r="906" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I906">
+        <v>0.53525602245681603</v>
+      </c>
+    </row>
+    <row r="907" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I907">
+        <v>0.53537735319343704</v>
+      </c>
+    </row>
+    <row r="908" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I908">
+        <v>0.53579086587397096</v>
+      </c>
+    </row>
+    <row r="909" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I909">
+        <v>0.53607228601044399</v>
+      </c>
+    </row>
+    <row r="910" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I910">
+        <v>0.53633557088911299</v>
+      </c>
+    </row>
+    <row r="911" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I911">
+        <v>0.536596502166239</v>
+      </c>
+    </row>
+    <row r="912" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I912">
+        <v>0.53677589225962596</v>
+      </c>
+    </row>
+    <row r="913" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I913">
+        <v>0.53713045582141505</v>
+      </c>
+    </row>
+    <row r="914" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I914">
+        <v>0.53739913708165199</v>
+      </c>
+    </row>
+    <row r="915" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I915">
+        <v>0.537859692866127</v>
+      </c>
+    </row>
+    <row r="916" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I916">
+        <v>0.538138640075149</v>
+      </c>
+    </row>
+    <row r="917" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I917">
+        <v>0.53869434995889098</v>
+      </c>
+    </row>
+    <row r="918" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I918">
+        <v>0.53903513914604295</v>
+      </c>
+    </row>
+    <row r="919" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I919">
+        <v>0.53915898302910503</v>
+      </c>
+    </row>
+    <row r="920" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I920">
+        <v>0.539509380554274</v>
+      </c>
+    </row>
+    <row r="921" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I921">
+        <v>0.54003320194012905</v>
+      </c>
+    </row>
+    <row r="922" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I922">
+        <v>0.54020800082318698</v>
+      </c>
+    </row>
+    <row r="923" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I923">
+        <v>0.54041760695464103</v>
+      </c>
+    </row>
+    <row r="924" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I924">
+        <v>0.54080416909703699</v>
+      </c>
+    </row>
+    <row r="925" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I925">
+        <v>0.54093025675105599</v>
+      </c>
+    </row>
+    <row r="926" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I926">
+        <v>0.54140686076661804</v>
+      </c>
+    </row>
+    <row r="927" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I927">
+        <v>0.54151911445348899</v>
+      </c>
+    </row>
+    <row r="928" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I928">
+        <v>0.54213208237558996</v>
+      </c>
+    </row>
+    <row r="929" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I929">
+        <v>0.54230789878074304</v>
+      </c>
+    </row>
+    <row r="930" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I930">
+        <v>0.542630874976745</v>
+      </c>
+    </row>
+    <row r="931" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I931">
+        <v>0.54282420759549999</v>
+      </c>
+    </row>
+    <row r="932" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I932">
+        <v>0.54307343337351299</v>
+      </c>
+    </row>
+    <row r="933" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I933">
+        <v>0.54344251371306895</v>
+      </c>
+    </row>
+    <row r="934" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I934">
+        <v>0.54358928610556501</v>
+      </c>
+    </row>
+    <row r="935" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I935">
+        <v>0.54466838090704695</v>
+      </c>
+    </row>
+    <row r="936" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I936">
+        <v>0.54530120134259996</v>
+      </c>
+    </row>
+    <row r="937" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I937">
+        <v>0.54542420064863595</v>
+      </c>
+    </row>
+    <row r="938" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I938">
+        <v>0.54580608364196603</v>
+      </c>
+    </row>
+    <row r="939" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I939">
+        <v>0.54633710175706096</v>
+      </c>
+    </row>
+    <row r="940" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I940">
+        <v>0.54667119530152597</v>
+      </c>
+    </row>
+    <row r="941" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I941">
+        <v>0.54694254952907295</v>
+      </c>
+    </row>
+    <row r="942" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I942">
+        <v>0.54709740909284799</v>
+      </c>
+    </row>
+    <row r="943" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I943">
+        <v>0.54740074949005302</v>
+      </c>
+    </row>
+    <row r="944" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I944">
+        <v>0.54768803030008295</v>
+      </c>
+    </row>
+    <row r="945" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I945">
+        <v>0.54797560397604905</v>
+      </c>
+    </row>
+    <row r="946" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I946">
+        <v>0.54826529805732005</v>
+      </c>
+    </row>
+    <row r="947" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I947">
+        <v>0.54839337510766994</v>
+      </c>
+    </row>
+    <row r="948" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I948">
+        <v>0.54864254222133402</v>
+      </c>
+    </row>
+    <row r="949" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I949">
+        <v>0.54893772901044502</v>
+      </c>
+    </row>
+    <row r="950" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I950">
+        <v>0.54938521760929604</v>
+      </c>
+    </row>
+    <row r="951" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I951">
+        <v>0.54963452680962999</v>
+      </c>
+    </row>
+    <row r="952" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I952">
+        <v>0.54973051442513199</v>
+      </c>
+    </row>
+    <row r="953" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I953">
+        <v>0.549953181347965</v>
+      </c>
+    </row>
+    <row r="954" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I954">
+        <v>0.55105215188626999</v>
+      </c>
+    </row>
+    <row r="955" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I955">
+        <v>0.55133144041325399</v>
+      </c>
+    </row>
+    <row r="956" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I956">
+        <v>0.55145494630709002</v>
+      </c>
+    </row>
+    <row r="957" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I957">
+        <v>0.55216487839221895</v>
+      </c>
+    </row>
+    <row r="958" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I958">
+        <v>0.55280000768416604</v>
+      </c>
+    </row>
+    <row r="959" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I959">
+        <v>0.55304798324653603</v>
+      </c>
+    </row>
+    <row r="960" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I960">
+        <v>0.55320276876409902</v>
+      </c>
+    </row>
+    <row r="961" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I961">
+        <v>0.554124551009609</v>
+      </c>
+    </row>
+    <row r="962" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I962">
+        <v>0.55479616793627795</v>
+      </c>
+    </row>
+    <row r="963" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I963">
+        <v>0.55550328449341302</v>
+      </c>
+    </row>
+    <row r="964" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I964">
+        <v>0.55615624298023703</v>
+      </c>
+    </row>
+    <row r="965" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I965">
+        <v>0.55637549762099403</v>
+      </c>
+    </row>
+    <row r="966" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I966">
+        <v>0.55680398262454001</v>
+      </c>
+    </row>
+    <row r="967" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I967">
+        <v>0.55745154795120699</v>
+      </c>
+    </row>
+    <row r="968" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I968">
+        <v>0.55878497655822301</v>
+      </c>
+    </row>
+    <row r="969" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I969">
+        <v>0.55943548726732695</v>
+      </c>
+    </row>
+    <row r="970" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I970">
+        <v>0.55975382724181</v>
+      </c>
+    </row>
+    <row r="971" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I971">
+        <v>0.56006821554975805</v>
+      </c>
+    </row>
+    <row r="972" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I972">
+        <v>0.56049156831386504</v>
+      </c>
+    </row>
+    <row r="973" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I973">
+        <v>0.56106966134431802</v>
+      </c>
+    </row>
+    <row r="974" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I974">
+        <v>0.56133755965818799</v>
+      </c>
+    </row>
+    <row r="975" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I975">
+        <v>0.56147631233163897</v>
+      </c>
+    </row>
+    <row r="976" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I976">
+        <v>0.56211408735499202</v>
+      </c>
+    </row>
+    <row r="977" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I977">
+        <v>0.56319668132807599</v>
+      </c>
+    </row>
+    <row r="978" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I978">
+        <v>0.56413946550875005</v>
+      </c>
+    </row>
+    <row r="979" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I979">
+        <v>0.56460109631823097</v>
+      </c>
+    </row>
+    <row r="980" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I980">
+        <v>0.56670180411338</v>
+      </c>
+    </row>
+    <row r="981" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I981">
+        <v>0.567752180877238</v>
+      </c>
+    </row>
+    <row r="982" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I982">
+        <v>0.56950123207852898</v>
+      </c>
+    </row>
+    <row r="983" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I983">
+        <v>0.570197118255382</v>
+      </c>
+    </row>
+    <row r="984" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I984">
+        <v>0.57107713600475496</v>
+      </c>
+    </row>
+    <row r="985" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I985">
+        <v>0.57291888145671699</v>
+      </c>
+    </row>
+    <row r="986" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I986">
+        <v>0.57549185351992904</v>
+      </c>
+    </row>
+    <row r="987" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I987">
+        <v>0.57691922790078998</v>
+      </c>
+    </row>
+    <row r="988" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I988">
+        <v>0.57825648804221597</v>
+      </c>
+    </row>
+    <row r="989" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I989">
+        <v>0.58021125530912299</v>
+      </c>
+    </row>
+    <row r="990" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I990">
+        <v>0.58119462107822994</v>
+      </c>
+    </row>
+    <row r="991" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I991">
+        <v>0.58168190904007</v>
+      </c>
+    </row>
+    <row r="992" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I992">
+        <v>0.58378592820267905</v>
+      </c>
+    </row>
+    <row r="993" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I993">
+        <v>0.58588373349974399</v>
+      </c>
+    </row>
+    <row r="994" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I994">
+        <v>0.58720984134628496</v>
+      </c>
+    </row>
+    <row r="995" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I995">
+        <v>0.58870423313246201</v>
+      </c>
+    </row>
+    <row r="996" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I996">
+        <v>0.59273690179409499</v>
+      </c>
+    </row>
+    <row r="997" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I997">
+        <v>0.59447639859216905</v>
+      </c>
+    </row>
+    <row r="998" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I998">
+        <v>0.59994646529353901</v>
+      </c>
+    </row>
+    <row r="999" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I999">
+        <v>0.60827007773803399</v>
+      </c>
+    </row>
+    <row r="1000" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I1000">
+        <v>0.61813754593022996</v>
+      </c>
+    </row>
+    <row r="1001" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I1001">
+        <v>0.62121986909947602</v>
       </c>
     </row>
   </sheetData>
